--- a/output_window.xlsx
+++ b/output_window.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R107"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,9 +456,9 @@
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="16" customWidth="1" min="11" max="11"/>
     <col width="16" customWidth="1" min="12" max="12"/>
-    <col width="24" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
-    <col width="16" customWidth="1" min="15" max="15"/>
+    <col width="21" customWidth="1" min="13" max="13"/>
+    <col width="19" customWidth="1" min="14" max="14"/>
+    <col width="21" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="11" customWidth="1" min="17" max="17"/>
     <col width="14" customWidth="1" min="18" max="18"/>
@@ -512,17 +512,17 @@
       </c>
       <c r="M1" s="3" t="inlineStr">
         <is>
-          <t>Average Window Size (px)</t>
+          <t>Avg. Window Size (px)</t>
         </is>
       </c>
       <c r="N1" s="3" t="inlineStr">
         <is>
-          <t>Scale Bar Size</t>
+          <t>Scale Bar Size (px)</t>
         </is>
       </c>
       <c r="O1" s="2" t="inlineStr">
         <is>
-          <t>Window Size (um)</t>
+          <t>Avg. Window Size (um)</t>
         </is>
       </c>
       <c r="P1" s="3" t="inlineStr">
@@ -546,19 +546,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>475.94873046875</v>
+        <v>86.31393432617188</v>
       </c>
       <c r="C2" t="n">
-        <v>64.63648986816406</v>
+        <v>261.8474731445312</v>
       </c>
       <c r="D2" t="n">
-        <v>21.80029296875</v>
+        <v>24.8131103515625</v>
       </c>
       <c r="E2" t="n">
-        <v>24.39461517333984</v>
+        <v>38.02835083007812</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7832702398300171</v>
+        <v>0.8098174333572388</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -569,34 +569,34 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>24.39461517333984</v>
+        <v>38.02835083007812</v>
       </c>
       <c r="L2" t="n">
-        <v>13.06956661211586</v>
+        <v>5.009647722642165</v>
       </c>
       <c r="M2" t="n">
-        <v>23.35182288907609</v>
+        <v>27.62202347975511</v>
       </c>
       <c r="N2" t="n">
-        <v>559.9561767578125</v>
+        <v>379.5511474609375</v>
       </c>
       <c r="O2" t="n">
-        <v>12.51088416826734</v>
+        <v>3.638774861377267</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t xml:space="preserve">300 uum
+          <t xml:space="preserve">50 um
 </t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t xml:space="preserve">300 </t>
+          <t>50</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t xml:space="preserve">uum
+          <t xml:space="preserve"> um
 </t>
         </is>
       </c>
@@ -606,19 +606,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1311.973266601562</v>
+        <v>522.7911376953125</v>
       </c>
       <c r="C3" t="n">
-        <v>1012.531066894531</v>
+        <v>417.3955078125</v>
       </c>
       <c r="D3" t="n">
-        <v>18.047119140625</v>
+        <v>27.504150390625</v>
       </c>
       <c r="E3" t="n">
-        <v>19.018798828125</v>
+        <v>37.74771118164062</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7300000190734863</v>
+        <v>0.7851322889328003</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -629,10 +629,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>19.018798828125</v>
+        <v>37.74771118164062</v>
       </c>
       <c r="L3" t="n">
-        <v>10.18943961199531</v>
+        <v>4.97267778455676</v>
       </c>
     </row>
     <row r="4">
@@ -640,19 +640,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>510.620361328125</v>
+        <v>641.3770751953125</v>
       </c>
       <c r="C4" t="n">
-        <v>222.1453857421875</v>
+        <v>967.566650390625</v>
       </c>
       <c r="D4" t="n">
-        <v>22.72750854492188</v>
+        <v>38.30419921875</v>
       </c>
       <c r="E4" t="n">
-        <v>24.70228576660156</v>
+        <v>49.50250244140625</v>
       </c>
       <c r="F4" t="n">
-        <v>0.6951326727867126</v>
+        <v>0.7729856967926025</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -663,10 +663,10 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>24.70228576660156</v>
+        <v>49.50250244140625</v>
       </c>
       <c r="L4" t="n">
-        <v>13.23440304362546</v>
+        <v>6.521189933499139</v>
       </c>
     </row>
     <row r="5">
@@ -674,19 +674,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10.66633796691895</v>
+        <v>961.1119995117188</v>
       </c>
       <c r="C5" t="n">
-        <v>1007.716552734375</v>
+        <v>20.53885459899902</v>
       </c>
       <c r="D5" t="n">
-        <v>16.13253402709961</v>
+        <v>27.2613525390625</v>
       </c>
       <c r="E5" t="n">
-        <v>17.71783447265625</v>
+        <v>31.8498420715332</v>
       </c>
       <c r="F5" t="n">
-        <v>0.644802451133728</v>
+        <v>0.769412636756897</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -697,10 +697,10 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>17.71783447265625</v>
+        <v>31.8498420715332</v>
       </c>
       <c r="L5" t="n">
-        <v>9.492439877301015</v>
+        <v>4.195724645360361</v>
       </c>
     </row>
     <row r="6">
@@ -708,19 +708,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>683.04150390625</v>
+        <v>374.1123962402344</v>
       </c>
       <c r="C6" t="n">
-        <v>1009.211059570312</v>
+        <v>993.8836669921875</v>
       </c>
       <c r="D6" t="n">
-        <v>17.71435546875</v>
+        <v>33.6837158203125</v>
       </c>
       <c r="E6" t="n">
-        <v>19.55828857421875</v>
+        <v>34.93798828125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.634721577167511</v>
+        <v>0.7636301517486572</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -731,10 +731,10 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>19.55828857421875</v>
+        <v>34.93798828125</v>
       </c>
       <c r="L6" t="n">
-        <v>10.47847459463489</v>
+        <v>4.602540199782394</v>
       </c>
     </row>
     <row r="7">
@@ -742,19 +742,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1464.079345703125</v>
+        <v>181.8137512207031</v>
       </c>
       <c r="C7" t="n">
-        <v>1009.7119140625</v>
+        <v>989.649658203125</v>
       </c>
       <c r="D7" t="n">
-        <v>17.1199951171875</v>
+        <v>27.85169982910156</v>
       </c>
       <c r="E7" t="n">
-        <v>14.99169921875</v>
+        <v>20.20196533203125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.624415397644043</v>
+        <v>0.7473157048225403</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -765,10 +765,10 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>17.1199951171875</v>
+        <v>27.85169982910156</v>
       </c>
       <c r="L7" t="n">
-        <v>9.172143728986185</v>
+        <v>3.669031172138399</v>
       </c>
     </row>
     <row r="8">
@@ -776,19 +776,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>188.5133514404297</v>
+        <v>1452.7685546875</v>
       </c>
       <c r="C8" t="n">
-        <v>741.9954833984375</v>
+        <v>639.8230590820312</v>
       </c>
       <c r="D8" t="n">
-        <v>24.03201293945312</v>
+        <v>46.9661865234375</v>
       </c>
       <c r="E8" t="n">
-        <v>25.42620849609375</v>
+        <v>57.888427734375</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6207929253578186</v>
+        <v>0.7279126644134521</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>25.42620849609375</v>
+        <v>57.888427734375</v>
       </c>
       <c r="L8" t="n">
-        <v>13.62224914277044</v>
+        <v>7.625906036858016</v>
       </c>
     </row>
     <row r="9">
@@ -810,19 +810,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>627.3868408203125</v>
+        <v>827.5820922851562</v>
       </c>
       <c r="C9" t="n">
-        <v>997.3207397460938</v>
+        <v>872.740234375</v>
       </c>
       <c r="D9" t="n">
-        <v>18.88665771484375</v>
+        <v>20.3040771484375</v>
       </c>
       <c r="E9" t="n">
-        <v>22.106689453125</v>
+        <v>20.3275146484375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5958172678947449</v>
+        <v>0.7264704704284668</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -833,10 +833,10 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>22.106689453125</v>
+        <v>20.3275146484375</v>
       </c>
       <c r="L9" t="n">
-        <v>11.84379619551178</v>
+        <v>2.677836015570149</v>
       </c>
     </row>
     <row r="10">
@@ -844,19 +844,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>140.6834106445312</v>
+        <v>778.5802001953125</v>
       </c>
       <c r="C10" t="n">
-        <v>1012.134033203125</v>
+        <v>883.27490234375</v>
       </c>
       <c r="D10" t="n">
-        <v>12.25675964355469</v>
+        <v>25.04022216796875</v>
       </c>
       <c r="E10" t="n">
-        <v>15.1787109375</v>
+        <v>31.270751953125</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5663974285125732</v>
+        <v>0.7241741418838501</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -867,10 +867,10 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>15.1787109375</v>
+        <v>31.270751953125</v>
       </c>
       <c r="L10" t="n">
-        <v>8.13208867096664</v>
+        <v>4.119438468611574</v>
       </c>
     </row>
     <row r="11">
@@ -878,19 +878,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>756.8483276367188</v>
+        <v>1298.644775390625</v>
       </c>
       <c r="C11" t="n">
-        <v>185.069580078125</v>
+        <v>966.9056396484375</v>
       </c>
       <c r="D11" t="n">
-        <v>23.3525390625</v>
+        <v>21.1151123046875</v>
       </c>
       <c r="E11" t="n">
-        <v>34.19691467285156</v>
+        <v>19.38092041015625</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5656611323356628</v>
+        <v>0.6869785785675049</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>34.19691467285156</v>
+        <v>21.1151123046875</v>
       </c>
       <c r="L11" t="n">
-        <v>18.32120945831202</v>
+        <v>2.78158983920087</v>
       </c>
     </row>
     <row r="12">
@@ -912,19 +912,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>549.8258056640625</v>
+        <v>791.9599609375</v>
       </c>
       <c r="C12" t="n">
-        <v>226.7516632080078</v>
+        <v>803.626708984375</v>
       </c>
       <c r="D12" t="n">
-        <v>15.91009521484375</v>
+        <v>32.6962890625</v>
       </c>
       <c r="E12" t="n">
-        <v>21.11239624023438</v>
+        <v>28.2607421875</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5632243156433105</v>
+        <v>0.685756504535675</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>21.11239624023438</v>
+        <v>32.6962890625</v>
       </c>
       <c r="L12" t="n">
-        <v>11.31109743041502</v>
+        <v>4.307230959677842</v>
       </c>
     </row>
     <row r="13">
@@ -946,19 +946,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>785.26171875</v>
+        <v>1328.964721679688</v>
       </c>
       <c r="C13" t="n">
-        <v>526.1483764648438</v>
+        <v>368.578369140625</v>
       </c>
       <c r="D13" t="n">
-        <v>16.31500244140625</v>
+        <v>29.421630859375</v>
       </c>
       <c r="E13" t="n">
-        <v>16.3033447265625</v>
+        <v>26.07028198242188</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5503709316253662</v>
+        <v>0.6566065549850464</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="K13" t="n">
-        <v>16.31500244140625</v>
+        <v>29.421630859375</v>
       </c>
       <c r="L13" t="n">
-        <v>8.740863902531435</v>
+        <v>3.875845331544282</v>
       </c>
     </row>
     <row r="14">
@@ -980,19 +980,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>642.46484375</v>
+        <v>1390.9521484375</v>
       </c>
       <c r="C14" t="n">
-        <v>839.06689453125</v>
+        <v>48.30247497558594</v>
       </c>
       <c r="D14" t="n">
-        <v>12.53997802734375</v>
+        <v>19.4600830078125</v>
       </c>
       <c r="E14" t="n">
-        <v>17.43109130859375</v>
+        <v>15.95385360717773</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5501060485839844</v>
+        <v>0.648181676864624</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         </is>
       </c>
       <c r="K14" t="n">
-        <v>17.43109130859375</v>
+        <v>19.4600830078125</v>
       </c>
       <c r="L14" t="n">
-        <v>9.338815445980639</v>
+        <v>2.563565297851627</v>
       </c>
     </row>
     <row r="15">
@@ -1014,19 +1014,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>391.9444580078125</v>
+        <v>497.54345703125</v>
       </c>
       <c r="C15" t="n">
-        <v>399.4921875</v>
+        <v>810.2324829101562</v>
       </c>
       <c r="D15" t="n">
-        <v>23.38748168945312</v>
+        <v>31.49203491210938</v>
       </c>
       <c r="E15" t="n">
-        <v>33.538330078125</v>
+        <v>37.842041015625</v>
       </c>
       <c r="F15" t="n">
-        <v>0.542805552482605</v>
+        <v>0.6435919404029846</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1037,10 +1037,10 @@
         </is>
       </c>
       <c r="K15" t="n">
-        <v>33.538330078125</v>
+        <v>37.842041015625</v>
       </c>
       <c r="L15" t="n">
-        <v>17.9683686707312</v>
+        <v>4.985104282884511</v>
       </c>
     </row>
     <row r="16">
@@ -1048,19 +1048,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1038.19921875</v>
+        <v>877.402587890625</v>
       </c>
       <c r="C16" t="n">
-        <v>1012.898559570312</v>
+        <v>49.17801666259766</v>
       </c>
       <c r="D16" t="n">
-        <v>10.6370849609375</v>
+        <v>12.01800537109375</v>
       </c>
       <c r="E16" t="n">
-        <v>10.87957763671875</v>
+        <v>15.87048721313477</v>
       </c>
       <c r="F16" t="n">
-        <v>0.5302389860153198</v>
+        <v>0.6431758403778076</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="K16" t="n">
-        <v>10.87957763671875</v>
+        <v>15.87048721313477</v>
       </c>
       <c r="L16" t="n">
-        <v>5.828801299976172</v>
+        <v>2.090691507495459</v>
       </c>
     </row>
     <row r="17">
@@ -1082,19 +1082,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>633.6329345703125</v>
+        <v>141.7927856445312</v>
       </c>
       <c r="C17" t="n">
-        <v>593.1976318359375</v>
+        <v>208.2902221679688</v>
       </c>
       <c r="D17" t="n">
-        <v>24.34112548828125</v>
+        <v>31.77877044677734</v>
       </c>
       <c r="E17" t="n">
-        <v>26.38153076171875</v>
+        <v>26.07867431640625</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5214207172393799</v>
+        <v>0.6289259195327759</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         </is>
       </c>
       <c r="K17" t="n">
-        <v>26.38153076171875</v>
+        <v>31.77877044677734</v>
       </c>
       <c r="L17" t="n">
-        <v>14.13406898079226</v>
+        <v>4.186362056782865</v>
       </c>
     </row>
     <row r="18">
@@ -1116,19 +1116,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>445.93359375</v>
+        <v>716.679931640625</v>
       </c>
       <c r="C18" t="n">
-        <v>73.67302703857422</v>
+        <v>961.17724609375</v>
       </c>
       <c r="D18" t="n">
-        <v>19.62686157226562</v>
+        <v>17.3482666015625</v>
       </c>
       <c r="E18" t="n">
-        <v>25.0673828125</v>
+        <v>13.3961181640625</v>
       </c>
       <c r="F18" t="n">
-        <v>0.517592191696167</v>
+        <v>0.584993302822113</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>25.0673828125</v>
+        <v>17.3482666015625</v>
       </c>
       <c r="L18" t="n">
-        <v>13.43000605385335</v>
+        <v>2.285366111737015</v>
       </c>
     </row>
     <row r="19">
@@ -1150,19 +1150,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>299.5546875</v>
+        <v>275.1143493652344</v>
       </c>
       <c r="C19" t="n">
-        <v>1010.524047851562</v>
+        <v>378.0545043945312</v>
       </c>
       <c r="D19" t="n">
-        <v>12.66909790039062</v>
+        <v>13.4365234375</v>
       </c>
       <c r="E19" t="n">
-        <v>12.85797119140625</v>
+        <v>25.3870849609375</v>
       </c>
       <c r="F19" t="n">
-        <v>0.5054081678390503</v>
+        <v>0.5734755992889404</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="K19" t="n">
-        <v>12.85797119140625</v>
+        <v>25.3870849609375</v>
       </c>
       <c r="L19" t="n">
-        <v>6.888737936165746</v>
+        <v>3.344356239042892</v>
       </c>
     </row>
     <row r="20">
@@ -1184,19 +1184,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>398.5764465332031</v>
+        <v>684.86328125</v>
       </c>
       <c r="C20" t="n">
-        <v>1013.644409179688</v>
+        <v>1011.347900390625</v>
       </c>
       <c r="D20" t="n">
-        <v>19.74969482421875</v>
+        <v>13.97039794921875</v>
       </c>
       <c r="E20" t="n">
-        <v>18.74298095703125</v>
+        <v>10.83795166015625</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5016577839851379</v>
+        <v>0.5667194724082947</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="K20" t="n">
-        <v>19.74969482421875</v>
+        <v>13.97039794921875</v>
       </c>
       <c r="L20" t="n">
-        <v>10.58102168203819</v>
+        <v>1.840384101415021</v>
       </c>
     </row>
     <row r="21">
@@ -1218,19 +1218,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16.75052452087402</v>
+        <v>1365.6787109375</v>
       </c>
       <c r="C21" t="n">
-        <v>714.1263427734375</v>
+        <v>354.6582336425781</v>
       </c>
       <c r="D21" t="n">
-        <v>18.61169815063477</v>
+        <v>28.3013916015625</v>
       </c>
       <c r="E21" t="n">
-        <v>21.8944091796875</v>
+        <v>22.5157470703125</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5009841918945312</v>
+        <v>0.5634644031524658</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="K21" t="n">
-        <v>21.8944091796875</v>
+        <v>28.3013916015625</v>
       </c>
       <c r="L21" t="n">
-        <v>11.73006572038784</v>
+        <v>3.728271115881057</v>
       </c>
     </row>
     <row r="22">
@@ -1252,19 +1252,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>121.9449310302734</v>
+        <v>393.0210266113281</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.376220703125</v>
+        <v>249.0312194824219</v>
       </c>
       <c r="D22" t="n">
-        <v>21.70758056640625</v>
+        <v>32.18731689453125</v>
       </c>
       <c r="E22" t="n">
-        <v>21.61712646484375</v>
+        <v>31.43304443359375</v>
       </c>
       <c r="F22" t="n">
-        <v>0.4939717352390289</v>
+        <v>0.5524253249168396</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="K22" t="n">
-        <v>21.70758056640625</v>
+        <v>32.18731689453125</v>
       </c>
       <c r="L22" t="n">
-        <v>11.6299711302917</v>
+        <v>4.240181739648659</v>
       </c>
     </row>
     <row r="23">
@@ -1286,19 +1286,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>79.64228820800781</v>
+        <v>1404.57275390625</v>
       </c>
       <c r="C23" t="n">
-        <v>129.8971557617188</v>
+        <v>155.8987731933594</v>
       </c>
       <c r="D23" t="n">
-        <v>19.40473175048828</v>
+        <v>18.7265625</v>
       </c>
       <c r="E23" t="n">
-        <v>21.38221740722656</v>
+        <v>22.44645690917969</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4914674758911133</v>
+        <v>0.5400359034538269</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>21.38221740722656</v>
+        <v>22.44645690917969</v>
       </c>
       <c r="L23" t="n">
-        <v>11.45565579668993</v>
+        <v>2.956973922926926</v>
       </c>
     </row>
     <row r="24">
@@ -1320,19 +1320,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>656.3604736328125</v>
+        <v>1403.191162109375</v>
       </c>
       <c r="C24" t="n">
-        <v>551.1185302734375</v>
+        <v>568.86279296875</v>
       </c>
       <c r="D24" t="n">
-        <v>13.7447509765625</v>
+        <v>28.876708984375</v>
       </c>
       <c r="E24" t="n">
-        <v>24.83587646484375</v>
+        <v>25.16326904296875</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4864354431629181</v>
+        <v>0.5384125709533691</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -1343,10 +1343,10 @@
         </is>
       </c>
       <c r="K24" t="n">
-        <v>24.83587646484375</v>
+        <v>28.876708984375</v>
       </c>
       <c r="L24" t="n">
-        <v>13.30597509003935</v>
+        <v>3.804060293000026</v>
       </c>
     </row>
     <row r="25">
@@ -1354,19 +1354,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>542.0657958984375</v>
+        <v>728.23388671875</v>
       </c>
       <c r="C25" t="n">
-        <v>68.98503112792969</v>
+        <v>536.50537109375</v>
       </c>
       <c r="D25" t="n">
-        <v>17.08563232421875</v>
+        <v>18.2791748046875</v>
       </c>
       <c r="E25" t="n">
-        <v>18.72809600830078</v>
+        <v>15.25836181640625</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4707188308238983</v>
+        <v>0.5345722436904907</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1377,10 +1377,10 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>18.72809600830078</v>
+        <v>18.2791748046875</v>
       </c>
       <c r="L25" t="n">
-        <v>10.03369377050424</v>
+        <v>2.407998885916785</v>
       </c>
     </row>
     <row r="26">
@@ -1388,19 +1388,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>594.95654296875</v>
+        <v>1198.127075195312</v>
       </c>
       <c r="C26" t="n">
-        <v>214.4261474609375</v>
+        <v>126.6137542724609</v>
       </c>
       <c r="D26" t="n">
-        <v>21.42822265625</v>
+        <v>16.029541015625</v>
       </c>
       <c r="E26" t="n">
-        <v>20.61492919921875</v>
+        <v>13.554931640625</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4704207181930542</v>
+        <v>0.5314747095108032</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -1411,10 +1411,10 @@
         </is>
       </c>
       <c r="K26" t="n">
-        <v>21.42822265625</v>
+        <v>16.029541015625</v>
       </c>
       <c r="L26" t="n">
-        <v>11.48030339462687</v>
+        <v>2.111644388754578</v>
       </c>
     </row>
     <row r="27">
@@ -1422,19 +1422,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>614.3106689453125</v>
+        <v>784.7490234375</v>
       </c>
       <c r="C27" t="n">
-        <v>815.4014282226562</v>
+        <v>542.2271728515625</v>
       </c>
       <c r="D27" t="n">
-        <v>19.37225341796875</v>
+        <v>18.81927490234375</v>
       </c>
       <c r="E27" t="n">
-        <v>20.1019287109375</v>
+        <v>29.82244873046875</v>
       </c>
       <c r="F27" t="n">
-        <v>0.4660041630268097</v>
+        <v>0.5259133577346802</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="K27" t="n">
-        <v>20.1019287109375</v>
+        <v>29.82244873046875</v>
       </c>
       <c r="L27" t="n">
-        <v>10.76973317483298</v>
+        <v>3.928646893833723</v>
       </c>
     </row>
     <row r="28">
@@ -1456,19 +1456,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>485.3859558105469</v>
+        <v>1326.763427734375</v>
       </c>
       <c r="C28" t="n">
-        <v>88.55596923828125</v>
+        <v>940.458984375</v>
       </c>
       <c r="D28" t="n">
-        <v>13.13702392578125</v>
+        <v>13.2020263671875</v>
       </c>
       <c r="E28" t="n">
-        <v>18.10919189453125</v>
+        <v>13.17584228515625</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4651947617530823</v>
+        <v>0.5132769346237183</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>18.10919189453125</v>
+        <v>13.2020263671875</v>
       </c>
       <c r="L28" t="n">
-        <v>9.702112047080972</v>
+        <v>1.739163016039389</v>
       </c>
     </row>
     <row r="29">
@@ -1490,19 +1490,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1371.1689453125</v>
+        <v>1299.531616210938</v>
       </c>
       <c r="C29" t="n">
-        <v>687.2022705078125</v>
+        <v>971.0300903320312</v>
       </c>
       <c r="D29" t="n">
-        <v>18.43359375</v>
+        <v>31.29443359375</v>
       </c>
       <c r="E29" t="n">
-        <v>19.01312255859375</v>
+        <v>31.1578369140625</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4595421850681305</v>
+        <v>0.51146399974823</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1513,10 +1513,10 @@
         </is>
       </c>
       <c r="K29" t="n">
-        <v>19.01312255859375</v>
+        <v>31.29443359375</v>
       </c>
       <c r="L29" t="n">
-        <v>10.18639851533443</v>
+        <v>4.122558158906732</v>
       </c>
     </row>
     <row r="30">
@@ -1524,19 +1524,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>746.6924438476562</v>
+        <v>1060.2314453125</v>
       </c>
       <c r="C30" t="n">
-        <v>230.5411071777344</v>
+        <v>446.7348022460938</v>
       </c>
       <c r="D30" t="n">
-        <v>12.944091796875</v>
+        <v>36.0281982421875</v>
       </c>
       <c r="E30" t="n">
-        <v>15.43618774414062</v>
+        <v>26.3538818359375</v>
       </c>
       <c r="F30" t="n">
-        <v>0.4479658901691437</v>
+        <v>0.5080610513687134</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -1547,10 +1547,10 @@
         </is>
       </c>
       <c r="K30" t="n">
-        <v>15.43618774414062</v>
+        <v>36.0281982421875</v>
       </c>
       <c r="L30" t="n">
-        <v>8.270033469503248</v>
+        <v>4.746158519504336</v>
       </c>
     </row>
     <row r="31">
@@ -1558,19 +1558,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>823.4343872070312</v>
+        <v>231.9807434082031</v>
       </c>
       <c r="C31" t="n">
-        <v>58.27346801757812</v>
+        <v>1006.720825195312</v>
       </c>
       <c r="D31" t="n">
-        <v>23.7940673828125</v>
+        <v>12.83111572265625</v>
       </c>
       <c r="E31" t="n">
-        <v>27.42665481567383</v>
+        <v>11.43939208984375</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4345715045928955</v>
+        <v>0.503805935382843</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="K31" t="n">
-        <v>27.42665481567383</v>
+        <v>12.83111572265625</v>
       </c>
       <c r="L31" t="n">
-        <v>14.69400068473725</v>
+        <v>1.690301268813421</v>
       </c>
     </row>
     <row r="32">
@@ -1592,19 +1592,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>798.837890625</v>
+        <v>844.075927734375</v>
       </c>
       <c r="C32" t="n">
-        <v>841.7838134765625</v>
+        <v>679.348876953125</v>
       </c>
       <c r="D32" t="n">
-        <v>24.40704345703125</v>
+        <v>12.94305419921875</v>
       </c>
       <c r="E32" t="n">
-        <v>26.99908447265625</v>
+        <v>9.93768310546875</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4316595792770386</v>
+        <v>0.5032071471214294</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         </is>
       </c>
       <c r="K32" t="n">
-        <v>26.99908447265625</v>
+        <v>12.94305419921875</v>
       </c>
       <c r="L32" t="n">
-        <v>14.46492721750992</v>
+        <v>1.705047433765276</v>
       </c>
     </row>
     <row r="33">
@@ -1626,19 +1626,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>743.8751831054688</v>
+        <v>690.0552978515625</v>
       </c>
       <c r="C33" t="n">
-        <v>849.2796020507812</v>
+        <v>853.1597900390625</v>
       </c>
       <c r="D33" t="n">
-        <v>25.5029296875</v>
+        <v>54.7470703125</v>
       </c>
       <c r="E33" t="n">
-        <v>23.03466796875</v>
+        <v>43.85211181640625</v>
       </c>
       <c r="F33" t="n">
-        <v>0.4271881282329559</v>
+        <v>0.5011703372001648</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -1649,10 +1649,10 @@
         </is>
       </c>
       <c r="K33" t="n">
-        <v>25.5029296875</v>
+        <v>54.7470703125</v>
       </c>
       <c r="L33" t="n">
-        <v>13.66335299763841</v>
+        <v>7.212080727293077</v>
       </c>
     </row>
     <row r="34">
@@ -1660,19 +1660,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>897.2452392578125</v>
+        <v>280.4168090820312</v>
       </c>
       <c r="C34" t="n">
-        <v>1017.1689453125</v>
+        <v>983.169921875</v>
       </c>
       <c r="D34" t="n">
-        <v>13.613525390625</v>
+        <v>15.27197265625</v>
       </c>
       <c r="E34" t="n">
-        <v>12.636474609375</v>
+        <v>16.825927734375</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4259310364723206</v>
+        <v>0.4937713742256165</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -1683,10 +1683,10 @@
         </is>
       </c>
       <c r="K34" t="n">
-        <v>13.613525390625</v>
+        <v>16.825927734375</v>
       </c>
       <c r="L34" t="n">
-        <v>7.293530791703191</v>
+        <v>2.216556035587626</v>
       </c>
     </row>
     <row r="35">
@@ -1694,19 +1694,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>732.7913208007812</v>
+        <v>1291.888916015625</v>
       </c>
       <c r="C35" t="n">
-        <v>870.9322509765625</v>
+        <v>751.3963623046875</v>
       </c>
       <c r="D35" t="n">
-        <v>20.32763671875</v>
+        <v>26.0970458984375</v>
       </c>
       <c r="E35" t="n">
-        <v>20.01904296875</v>
+        <v>39.59344482421875</v>
       </c>
       <c r="F35" t="n">
-        <v>0.422652006149292</v>
+        <v>0.4878332912921906</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -1717,10 +1717,10 @@
         </is>
       </c>
       <c r="K35" t="n">
-        <v>20.32763671875</v>
+        <v>39.59344482421875</v>
       </c>
       <c r="L35" t="n">
-        <v>10.89065764205791</v>
+        <v>5.215824677264822</v>
       </c>
     </row>
     <row r="36">
@@ -1728,19 +1728,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>230.7815856933594</v>
+        <v>1296.05517578125</v>
       </c>
       <c r="C36" t="n">
-        <v>871.8331298828125</v>
+        <v>200.9090270996094</v>
       </c>
       <c r="D36" t="n">
-        <v>22.54127502441406</v>
+        <v>12.2164306640625</v>
       </c>
       <c r="E36" t="n">
-        <v>21.043212890625</v>
+        <v>12.002197265625</v>
       </c>
       <c r="F36" t="n">
-        <v>0.4207098186016083</v>
+        <v>0.4775369763374329</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="K36" t="n">
-        <v>22.54127502441406</v>
+        <v>12.2164306640625</v>
       </c>
       <c r="L36" t="n">
-        <v>12.07662811486233</v>
+        <v>1.609326008600697</v>
       </c>
     </row>
     <row r="37">
@@ -1762,19 +1762,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1108.643432617188</v>
+        <v>1476.955688476562</v>
       </c>
       <c r="C37" t="n">
-        <v>1009.503173828125</v>
+        <v>208.4662017822266</v>
       </c>
       <c r="D37" t="n">
-        <v>17.533447265625</v>
+        <v>16.0888671875</v>
       </c>
       <c r="E37" t="n">
-        <v>17.4315185546875</v>
+        <v>21.40414428710938</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4117366373538971</v>
+        <v>0.4737049341201782</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         </is>
       </c>
       <c r="K37" t="n">
-        <v>17.533447265625</v>
+        <v>21.40414428710938</v>
       </c>
       <c r="L37" t="n">
-        <v>9.393653285768693</v>
+        <v>2.819665337635719</v>
       </c>
     </row>
     <row r="38">
@@ -1796,19 +1796,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1090.72802734375</v>
+        <v>733.22705078125</v>
       </c>
       <c r="C38" t="n">
-        <v>765.4631958007812</v>
+        <v>224.5954284667969</v>
       </c>
       <c r="D38" t="n">
-        <v>18.9329833984375</v>
+        <v>13.9482421875</v>
       </c>
       <c r="E38" t="n">
-        <v>21.146240234375</v>
+        <v>12.04600524902344</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4073978662490845</v>
+        <v>0.4690908491611481</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="K38" t="n">
-        <v>21.146240234375</v>
+        <v>13.9482421875</v>
       </c>
       <c r="L38" t="n">
-        <v>11.32922956050594</v>
+        <v>1.837465422092489</v>
       </c>
     </row>
     <row r="39">
@@ -1830,19 +1830,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>131.9154663085938</v>
+        <v>30.25854110717773</v>
       </c>
       <c r="C39" t="n">
-        <v>15.34059238433838</v>
+        <v>988.62744140625</v>
       </c>
       <c r="D39" t="n">
-        <v>17.96929931640625</v>
+        <v>15.73973846435547</v>
       </c>
       <c r="E39" t="n">
-        <v>15.70537376403809</v>
+        <v>20.57916259765625</v>
       </c>
       <c r="F39" t="n">
-        <v>0.4071718454360962</v>
+        <v>0.4674403369426727</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -1853,10 +1853,10 @@
         </is>
       </c>
       <c r="K39" t="n">
-        <v>17.96929931640625</v>
+        <v>20.57916259765625</v>
       </c>
       <c r="L39" t="n">
-        <v>9.627163729374224</v>
+        <v>2.710986745175656</v>
       </c>
     </row>
     <row r="40">
@@ -1864,19 +1864,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>862.1072998046875</v>
+        <v>1111.211303710938</v>
       </c>
       <c r="C40" t="n">
-        <v>603.0986938476562</v>
+        <v>570.031494140625</v>
       </c>
       <c r="D40" t="n">
-        <v>18.051513671875</v>
+        <v>57.60986328125</v>
       </c>
       <c r="E40" t="n">
-        <v>22.351318359375</v>
+        <v>41.71343994140625</v>
       </c>
       <c r="F40" t="n">
-        <v>0.406796008348465</v>
+        <v>0.4669021964073181</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -1887,10 +1887,10 @@
         </is>
       </c>
       <c r="K40" t="n">
-        <v>22.351318359375</v>
+        <v>57.60986328125</v>
       </c>
       <c r="L40" t="n">
-        <v>11.9748576516063</v>
+        <v>7.589209473695383</v>
       </c>
     </row>
     <row r="41">
@@ -1898,19 +1898,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>865.209716796875</v>
+        <v>966.22119140625</v>
       </c>
       <c r="C41" t="n">
-        <v>429.3211669921875</v>
+        <v>206.6118927001953</v>
       </c>
       <c r="D41" t="n">
-        <v>27.0791015625</v>
+        <v>50.97027587890625</v>
       </c>
       <c r="E41" t="n">
-        <v>25.20529174804688</v>
+        <v>42.57199096679688</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4045145809650421</v>
+        <v>0.4647918045520782</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -1921,10 +1921,10 @@
         </is>
       </c>
       <c r="K41" t="n">
-        <v>27.0791015625</v>
+        <v>50.97027587890625</v>
       </c>
       <c r="L41" t="n">
-        <v>14.50779687043904</v>
+        <v>6.714546408287698</v>
       </c>
     </row>
     <row r="42">
@@ -1932,19 +1932,19 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>345.9207153320312</v>
+        <v>872.9423828125</v>
       </c>
       <c r="C42" t="n">
-        <v>49.09174346923828</v>
+        <v>316.5880737304688</v>
       </c>
       <c r="D42" t="n">
-        <v>17.42843627929688</v>
+        <v>12.7696533203125</v>
       </c>
       <c r="E42" t="n">
-        <v>20.01511383056641</v>
+        <v>13.15341186523438</v>
       </c>
       <c r="F42" t="n">
-        <v>0.4027610719203949</v>
+        <v>0.4615301191806793</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -1955,10 +1955,10 @@
         </is>
       </c>
       <c r="K42" t="n">
-        <v>20.01511383056641</v>
+        <v>13.15341186523438</v>
       </c>
       <c r="L42" t="n">
-        <v>10.72322156340273</v>
+        <v>1.73275880645152</v>
       </c>
     </row>
     <row r="43">
@@ -1966,19 +1966,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>403.3520202636719</v>
+        <v>713.0711669921875</v>
       </c>
       <c r="C43" t="n">
-        <v>756.9833984375</v>
+        <v>520.7514038085938</v>
       </c>
       <c r="D43" t="n">
-        <v>21.73675537109375</v>
+        <v>56.50518798828125</v>
       </c>
       <c r="E43" t="n">
-        <v>21.48663330078125</v>
+        <v>53.0406494140625</v>
       </c>
       <c r="F43" t="n">
-        <v>0.3999287784099579</v>
+        <v>0.4588852226734161</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -1989,10 +1989,10 @@
         </is>
       </c>
       <c r="K43" t="n">
-        <v>21.73675537109375</v>
+        <v>56.50518798828125</v>
       </c>
       <c r="L43" t="n">
-        <v>11.64560171312932</v>
+        <v>7.443685569952945</v>
       </c>
     </row>
     <row r="44">
@@ -2000,19 +2000,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>66.76817321777344</v>
+        <v>1092.48486328125</v>
       </c>
       <c r="C44" t="n">
-        <v>611.093994140625</v>
+        <v>459.656005859375</v>
       </c>
       <c r="D44" t="n">
-        <v>20.09467315673828</v>
+        <v>13.80224609375</v>
       </c>
       <c r="E44" t="n">
-        <v>22.99725341796875</v>
+        <v>11.80731201171875</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3993104994297028</v>
+        <v>0.4530050158500671</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -2023,10 +2023,10 @@
         </is>
       </c>
       <c r="K44" t="n">
-        <v>22.99725341796875</v>
+        <v>13.80224609375</v>
       </c>
       <c r="L44" t="n">
-        <v>12.32092137162833</v>
+        <v>1.818232692231617</v>
       </c>
     </row>
     <row r="45">
@@ -2034,19 +2034,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1415.5283203125</v>
+        <v>740.7728881835938</v>
       </c>
       <c r="C45" t="n">
-        <v>901.1412963867188</v>
+        <v>607.4306640625</v>
       </c>
       <c r="D45" t="n">
-        <v>24.4183349609375</v>
+        <v>34.884033203125</v>
       </c>
       <c r="E45" t="n">
-        <v>26.345947265625</v>
+        <v>24.05517578125</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3959963917732239</v>
+        <v>0.45049849152565</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -2057,10 +2057,10 @@
         </is>
       </c>
       <c r="K45" t="n">
-        <v>26.345947265625</v>
+        <v>34.884033203125</v>
       </c>
       <c r="L45" t="n">
-        <v>14.11500490172462</v>
+        <v>4.595432451790332</v>
       </c>
     </row>
     <row r="46">
@@ -2068,19 +2068,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>741.4527587890625</v>
+        <v>295.186767578125</v>
       </c>
       <c r="C46" t="n">
-        <v>574.2792358398438</v>
+        <v>709.5206298828125</v>
       </c>
       <c r="D46" t="n">
-        <v>19.01177978515625</v>
+        <v>7.719573974609375</v>
       </c>
       <c r="E46" t="n">
-        <v>23.8658447265625</v>
+        <v>10.59625244140625</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3924583494663239</v>
+        <v>0.449634850025177</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         </is>
       </c>
       <c r="K46" t="n">
-        <v>23.8658447265625</v>
+        <v>10.59625244140625</v>
       </c>
       <c r="L46" t="n">
-        <v>12.78627456067053</v>
+        <v>1.395892557866235</v>
       </c>
     </row>
     <row r="47">
@@ -2102,19 +2102,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1434.09130859375</v>
+        <v>201.2982788085938</v>
       </c>
       <c r="C47" t="n">
-        <v>913.672119140625</v>
+        <v>728.2615966796875</v>
       </c>
       <c r="D47" t="n">
-        <v>24.0462646484375</v>
+        <v>11.38380432128906</v>
       </c>
       <c r="E47" t="n">
-        <v>25.780517578125</v>
+        <v>11.7940673828125</v>
       </c>
       <c r="F47" t="n">
-        <v>0.3853528201580048</v>
+        <v>0.4459621012210846</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="K47" t="n">
-        <v>25.780517578125</v>
+        <v>11.7940673828125</v>
       </c>
       <c r="L47" t="n">
-        <v>13.81207243434447</v>
+        <v>1.553686171377774</v>
       </c>
     </row>
     <row r="48">
@@ -2136,19 +2136,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>527.0849609375</v>
+        <v>926.10888671875</v>
       </c>
       <c r="C48" t="n">
-        <v>1009.007690429688</v>
+        <v>491.3984985351562</v>
       </c>
       <c r="D48" t="n">
-        <v>18.8414306640625</v>
+        <v>12.302490234375</v>
       </c>
       <c r="E48" t="n">
-        <v>18.7652587890625</v>
+        <v>18.69705200195312</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3820030391216278</v>
+        <v>0.4419662356376648</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="K48" t="n">
-        <v>18.8414306640625</v>
+        <v>18.69705200195312</v>
       </c>
       <c r="L48" t="n">
-        <v>10.09441351633396</v>
+        <v>2.463047750880186</v>
       </c>
     </row>
     <row r="49">
@@ -2170,19 +2170,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1325.886474609375</v>
+        <v>176.5619812011719</v>
       </c>
       <c r="C49" t="n">
-        <v>8.81278133392334</v>
+        <v>855.17724609375</v>
       </c>
       <c r="D49" t="n">
-        <v>27.0946044921875</v>
+        <v>17.78543090820312</v>
       </c>
       <c r="E49" t="n">
-        <v>17.62556266784668</v>
+        <v>22.97283935546875</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3801807165145874</v>
+        <v>0.4400104582309723</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -2193,10 +2193,10 @@
         </is>
       </c>
       <c r="K49" t="n">
-        <v>27.0946044921875</v>
+        <v>22.97283935546875</v>
       </c>
       <c r="L49" t="n">
-        <v>14.51610266131928</v>
+        <v>3.026316678153774</v>
       </c>
     </row>
     <row r="50">
@@ -2204,19 +2204,19 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1331.380859375</v>
+        <v>640.947021484375</v>
       </c>
       <c r="C50" t="n">
-        <v>887.7138061523438</v>
+        <v>451.6767578125</v>
       </c>
       <c r="D50" t="n">
-        <v>26.6331787109375</v>
+        <v>13.1866455078125</v>
       </c>
       <c r="E50" t="n">
-        <v>28.8369140625</v>
+        <v>12.05001831054688</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3781322538852692</v>
+        <v>0.439597874879837</v>
       </c>
       <c r="G50" t="n">
         <v>0</v>
@@ -2227,10 +2227,10 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>28.8369140625</v>
+        <v>13.1866455078125</v>
       </c>
       <c r="L50" t="n">
-        <v>15.44955583638769</v>
+        <v>1.737136825435317</v>
       </c>
     </row>
     <row r="51">
@@ -2238,19 +2238,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>464.4651489257812</v>
+        <v>475.282958984375</v>
       </c>
       <c r="C51" t="n">
-        <v>843.9166259765625</v>
+        <v>852.3804931640625</v>
       </c>
       <c r="D51" t="n">
-        <v>24.89620971679688</v>
+        <v>10.54241943359375</v>
       </c>
       <c r="E51" t="n">
-        <v>28.05377197265625</v>
+        <v>10.26983642578125</v>
       </c>
       <c r="F51" t="n">
-        <v>0.3762801587581635</v>
+        <v>0.4349332451820374</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -2261,10 +2261,10 @@
         </is>
       </c>
       <c r="K51" t="n">
-        <v>28.05377197265625</v>
+        <v>10.54241943359375</v>
       </c>
       <c r="L51" t="n">
-        <v>15.02998259707911</v>
+        <v>1.388800890751984</v>
       </c>
     </row>
     <row r="52">
@@ -2272,19 +2272,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1120.383911132812</v>
+        <v>767.2691650390625</v>
       </c>
       <c r="C52" t="n">
-        <v>957.330078125</v>
+        <v>255.0675201416016</v>
       </c>
       <c r="D52" t="n">
-        <v>25.30712890625</v>
+        <v>34.71417236328125</v>
       </c>
       <c r="E52" t="n">
-        <v>27.68524169921875</v>
+        <v>26.21548461914062</v>
       </c>
       <c r="F52" t="n">
-        <v>0.3756707310676575</v>
+        <v>0.4344423711299896</v>
       </c>
       <c r="G52" t="n">
         <v>0</v>
@@ -2295,10 +2295,10 @@
         </is>
       </c>
       <c r="K52" t="n">
-        <v>27.68524169921875</v>
+        <v>34.71417236328125</v>
       </c>
       <c r="L52" t="n">
-        <v>14.83254021387084</v>
+        <v>4.573055910317588</v>
       </c>
     </row>
     <row r="53">
@@ -2306,19 +2306,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1286.281860351562</v>
+        <v>1369.480712890625</v>
       </c>
       <c r="C53" t="n">
-        <v>1017.423095703125</v>
+        <v>992.6229858398438</v>
       </c>
       <c r="D53" t="n">
-        <v>15.4951171875</v>
+        <v>11.7105712890625</v>
       </c>
       <c r="E53" t="n">
-        <v>12.17608642578125</v>
+        <v>9.3983154296875</v>
       </c>
       <c r="F53" t="n">
-        <v>0.369551032781601</v>
+        <v>0.4340144395828247</v>
       </c>
       <c r="G53" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         </is>
       </c>
       <c r="K53" t="n">
-        <v>15.4951171875</v>
+        <v>11.7105712890625</v>
       </c>
       <c r="L53" t="n">
-        <v>8.301605284837397</v>
+        <v>1.542686850955671</v>
       </c>
     </row>
     <row r="54">
@@ -2340,19 +2340,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1525.564331054688</v>
+        <v>784.9953002929688</v>
       </c>
       <c r="C54" t="n">
-        <v>1009.535522460938</v>
+        <v>280.7634887695312</v>
       </c>
       <c r="D54" t="n">
-        <v>11.744140625</v>
+        <v>17.741455078125</v>
       </c>
       <c r="E54" t="n">
-        <v>13.44635009765625</v>
+        <v>16.9046630859375</v>
       </c>
       <c r="F54" t="n">
-        <v>0.3582720458507538</v>
+        <v>0.4332695603370667</v>
       </c>
       <c r="G54" t="n">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         </is>
       </c>
       <c r="K54" t="n">
-        <v>13.44635009765625</v>
+        <v>17.741455078125</v>
       </c>
       <c r="L54" t="n">
-        <v>7.203965590045782</v>
+        <v>2.337162619163325</v>
       </c>
     </row>
     <row r="55">
@@ -2374,19 +2374,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>815.6217041015625</v>
+        <v>1420.96826171875</v>
       </c>
       <c r="C55" t="n">
-        <v>586.94091796875</v>
+        <v>697.3201293945312</v>
       </c>
       <c r="D55" t="n">
-        <v>14.38140869140625</v>
+        <v>52.2957763671875</v>
       </c>
       <c r="E55" t="n">
-        <v>23.77734375</v>
+        <v>42.62158203125</v>
       </c>
       <c r="F55" t="n">
-        <v>0.3577247858047485</v>
+        <v>0.4322054982185364</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -2397,10 +2397,10 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>23.77734375</v>
+        <v>52.2957763671875</v>
       </c>
       <c r="L55" t="n">
-        <v>12.73885961273215</v>
+        <v>6.889160619988595</v>
       </c>
     </row>
     <row r="56">
@@ -2408,19 +2408,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>562.1160888671875</v>
+        <v>81.08829498291016</v>
       </c>
       <c r="C56" t="n">
-        <v>659.3243408203125</v>
+        <v>88.11479187011719</v>
       </c>
       <c r="D56" t="n">
-        <v>18.40716552734375</v>
+        <v>38.85060119628906</v>
       </c>
       <c r="E56" t="n">
-        <v>14.8974609375</v>
+        <v>21.86119842529297</v>
       </c>
       <c r="F56" t="n">
-        <v>0.3507355749607086</v>
+        <v>0.4303377270698547</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="K56" t="n">
-        <v>18.40716552734375</v>
+        <v>38.85060119628906</v>
       </c>
       <c r="L56" t="n">
-        <v>9.861753271794907</v>
+        <v>5.117966505461228</v>
       </c>
     </row>
     <row r="57">
@@ -2442,19 +2442,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>244.3277130126953</v>
+        <v>972.9098510742188</v>
       </c>
       <c r="C57" t="n">
-        <v>17.84870338439941</v>
+        <v>630.71240234375</v>
       </c>
       <c r="D57" t="n">
-        <v>31.33523559570312</v>
+        <v>19.910888671875</v>
       </c>
       <c r="E57" t="n">
-        <v>35.69740676879883</v>
+        <v>19.33929443359375</v>
       </c>
       <c r="F57" t="n">
-        <v>0.3499626219272614</v>
+        <v>0.4301163256168365</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -2465,10 +2465,10 @@
         </is>
       </c>
       <c r="K57" t="n">
-        <v>35.69740676879883</v>
+        <v>19.910888671875</v>
       </c>
       <c r="L57" t="n">
-        <v>19.12510741938205</v>
+        <v>2.622951979604301</v>
       </c>
     </row>
     <row r="58">
@@ -2476,19 +2476,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>376.848876953125</v>
+        <v>1162.609619140625</v>
       </c>
       <c r="C58" t="n">
-        <v>189.4049987792969</v>
+        <v>457.3865356445312</v>
       </c>
       <c r="D58" t="n">
-        <v>20.06082153320312</v>
+        <v>19.3839111328125</v>
       </c>
       <c r="E58" t="n">
-        <v>30.929931640625</v>
+        <v>17.37179565429688</v>
       </c>
       <c r="F58" t="n">
-        <v>0.3483762741088867</v>
+        <v>0.4283464848995209</v>
       </c>
       <c r="G58" t="n">
         <v>0</v>
@@ -2499,10 +2499,10 @@
         </is>
       </c>
       <c r="K58" t="n">
-        <v>30.929931640625</v>
+        <v>19.3839111328125</v>
       </c>
       <c r="L58" t="n">
-        <v>16.5709030051485</v>
+        <v>2.553530830098129</v>
       </c>
     </row>
     <row r="59">
@@ -2510,19 +2510,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>814.332763671875</v>
+        <v>1354.779663085938</v>
       </c>
       <c r="C59" t="n">
-        <v>391.3109741210938</v>
+        <v>107.962646484375</v>
       </c>
       <c r="D59" t="n">
-        <v>21.333984375</v>
+        <v>12.512939453125</v>
       </c>
       <c r="E59" t="n">
-        <v>25.28656005859375</v>
+        <v>11.61708831787109</v>
       </c>
       <c r="F59" t="n">
-        <v>0.3465552628040314</v>
+        <v>0.4224820733070374</v>
       </c>
       <c r="G59" t="n">
         <v>0</v>
@@ -2533,10 +2533,10 @@
         </is>
       </c>
       <c r="K59" t="n">
-        <v>25.28656005859375</v>
+        <v>12.512939453125</v>
       </c>
       <c r="L59" t="n">
-        <v>13.54743162492008</v>
+        <v>1.648386460801413</v>
       </c>
     </row>
     <row r="60">
@@ -2544,19 +2544,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>595.5584716796875</v>
+        <v>1018.18310546875</v>
       </c>
       <c r="C60" t="n">
-        <v>190.1040649414062</v>
+        <v>505.4397583007812</v>
       </c>
       <c r="D60" t="n">
-        <v>16.78839111328125</v>
+        <v>29.826904296875</v>
       </c>
       <c r="E60" t="n">
-        <v>19.81040954589844</v>
+        <v>50.88589477539062</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3414357304573059</v>
+        <v>0.4204064905643463</v>
       </c>
       <c r="G60" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="K60" t="n">
-        <v>19.81040954589844</v>
+        <v>50.88589477539062</v>
       </c>
       <c r="L60" t="n">
-        <v>10.61354997132213</v>
+        <v>6.70343050150147</v>
       </c>
     </row>
     <row r="61">
@@ -2578,19 +2578,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>768.92333984375</v>
+        <v>708.795654296875</v>
       </c>
       <c r="C61" t="n">
-        <v>11.96793651580811</v>
+        <v>578.85107421875</v>
       </c>
       <c r="D61" t="n">
-        <v>16.80145263671875</v>
+        <v>17.318115234375</v>
       </c>
       <c r="E61" t="n">
-        <v>13.38945579528809</v>
+        <v>19.68603515625</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3385912477970123</v>
+        <v>0.4072298407554626</v>
       </c>
       <c r="G61" t="n">
         <v>0</v>
@@ -2601,10 +2601,10 @@
         </is>
       </c>
       <c r="K61" t="n">
-        <v>16.80145263671875</v>
+        <v>19.68603515625</v>
       </c>
       <c r="L61" t="n">
-        <v>9.001482616372087</v>
+        <v>2.593331002678109</v>
       </c>
     </row>
     <row r="62">
@@ -2612,19 +2612,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>528.733154296875</v>
+        <v>975.2744140625</v>
       </c>
       <c r="C62" t="n">
-        <v>32.30892944335938</v>
+        <v>138.4645233154297</v>
       </c>
       <c r="D62" t="n">
-        <v>20.0816650390625</v>
+        <v>52.83251953125</v>
       </c>
       <c r="E62" t="n">
-        <v>19.37920570373535</v>
+        <v>49.53610229492188</v>
       </c>
       <c r="F62" t="n">
-        <v>0.3364878296852112</v>
+        <v>0.4068445265293121</v>
       </c>
       <c r="G62" t="n">
         <v>0</v>
@@ -2635,10 +2635,10 @@
         </is>
       </c>
       <c r="K62" t="n">
-        <v>20.0816650390625</v>
+        <v>52.83251953125</v>
       </c>
       <c r="L62" t="n">
-        <v>10.75887678675329</v>
+        <v>6.959868239719576</v>
       </c>
     </row>
     <row r="63">
@@ -2646,19 +2646,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>321.3944091796875</v>
+        <v>1100.214965820312</v>
       </c>
       <c r="C63" t="n">
-        <v>1007.205688476562</v>
+        <v>14.61196994781494</v>
       </c>
       <c r="D63" t="n">
-        <v>17.35626220703125</v>
+        <v>17.556884765625</v>
       </c>
       <c r="E63" t="n">
-        <v>17.28826904296875</v>
+        <v>13.56556510925293</v>
       </c>
       <c r="F63" t="n">
-        <v>0.3321824669837952</v>
+        <v>0.4062980115413666</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -2669,10 +2669,10 @@
         </is>
       </c>
       <c r="K63" t="n">
-        <v>17.35626220703125</v>
+        <v>17.556884765625</v>
       </c>
       <c r="L63" t="n">
-        <v>9.298725289999631</v>
+        <v>2.312848331914464</v>
       </c>
     </row>
     <row r="64">
@@ -2680,19 +2680,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1395.870727539062</v>
+        <v>510.5965270996094</v>
       </c>
       <c r="C64" t="n">
-        <v>647.341064453125</v>
+        <v>989.4810791015625</v>
       </c>
       <c r="D64" t="n">
-        <v>24.847900390625</v>
+        <v>15.31756591796875</v>
       </c>
       <c r="E64" t="n">
-        <v>22.5628662109375</v>
+        <v>16.37310791015625</v>
       </c>
       <c r="F64" t="n">
-        <v>0.3284775614738464</v>
+        <v>0.4060098230838776</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -2703,10 +2703,10 @@
         </is>
       </c>
       <c r="K64" t="n">
-        <v>24.847900390625</v>
+        <v>16.37310791015625</v>
       </c>
       <c r="L64" t="n">
-        <v>13.31241698296615</v>
+        <v>2.156904019351085</v>
       </c>
     </row>
     <row r="65">
@@ -2714,19 +2714,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1173.832397460938</v>
+        <v>175.9864501953125</v>
       </c>
       <c r="C65" t="n">
-        <v>64.81040954589844</v>
+        <v>134.7622833251953</v>
       </c>
       <c r="D65" t="n">
-        <v>26.85986328125</v>
+        <v>16.62312316894531</v>
       </c>
       <c r="E65" t="n">
-        <v>26.80596160888672</v>
+        <v>16.69010162353516</v>
       </c>
       <c r="F65" t="n">
-        <v>0.3243013620376587</v>
+        <v>0.4045412838459015</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -2737,10 +2737,10 @@
         </is>
       </c>
       <c r="K65" t="n">
-        <v>26.85986328125</v>
+        <v>16.69010162353516</v>
       </c>
       <c r="L65" t="n">
-        <v>14.39033859940822</v>
+        <v>2.198663043859308</v>
       </c>
     </row>
     <row r="66">
@@ -2748,19 +2748,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>353.8920288085938</v>
+        <v>650.579345703125</v>
       </c>
       <c r="C66" t="n">
-        <v>72.51699829101562</v>
+        <v>745.3135986328125</v>
       </c>
       <c r="D66" t="n">
-        <v>14.66226196289062</v>
+        <v>13.72015380859375</v>
       </c>
       <c r="E66" t="n">
-        <v>22.43332672119141</v>
+        <v>13.6260986328125</v>
       </c>
       <c r="F66" t="n">
-        <v>0.319156289100647</v>
+        <v>0.4021054804325104</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2771,10 +2771,10 @@
         </is>
       </c>
       <c r="K66" t="n">
-        <v>22.43332672119141</v>
+        <v>13.72015380859375</v>
       </c>
       <c r="L66" t="n">
-        <v>12.01879414086403</v>
+        <v>1.80741830190433</v>
       </c>
     </row>
     <row r="67">
@@ -2782,19 +2782,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>414.6590576171875</v>
+        <v>1126.0927734375</v>
       </c>
       <c r="C67" t="n">
-        <v>803.129638671875</v>
+        <v>216.1741638183594</v>
       </c>
       <c r="D67" t="n">
-        <v>21.79232788085938</v>
+        <v>46.2454833984375</v>
       </c>
       <c r="E67" t="n">
-        <v>25.04779052734375</v>
+        <v>40.05693054199219</v>
       </c>
       <c r="F67" t="n">
-        <v>0.3169801533222198</v>
+        <v>0.3989346623420715</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="K67" t="n">
-        <v>25.04779052734375</v>
+        <v>46.2454833984375</v>
       </c>
       <c r="L67" t="n">
-        <v>13.41950936537872</v>
+        <v>6.092127992209137</v>
       </c>
     </row>
     <row r="68">
@@ -2816,19 +2816,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>687.7574462890625</v>
+        <v>173.6381225585938</v>
       </c>
       <c r="C68" t="n">
-        <v>1005.851684570312</v>
+        <v>9.18769645690918</v>
       </c>
       <c r="D68" t="n">
-        <v>30.16522216796875</v>
+        <v>11.32896423339844</v>
       </c>
       <c r="E68" t="n">
-        <v>26.647216796875</v>
+        <v>8.434267997741699</v>
       </c>
       <c r="F68" t="n">
-        <v>0.3147608935832977</v>
+        <v>0.3970518112182617</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         </is>
       </c>
       <c r="K68" t="n">
-        <v>30.16522216796875</v>
+        <v>11.32896423339844</v>
       </c>
       <c r="L68" t="n">
-        <v>16.16120515499674</v>
+        <v>1.492416016811593</v>
       </c>
     </row>
     <row r="69">
@@ -2850,19 +2850,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>960.6910400390625</v>
+        <v>300.1924133300781</v>
       </c>
       <c r="C69" t="n">
-        <v>869.8553466796875</v>
+        <v>164.3701019287109</v>
       </c>
       <c r="D69" t="n">
-        <v>21.03411865234375</v>
+        <v>7.98309326171875</v>
       </c>
       <c r="E69" t="n">
-        <v>21.94586181640625</v>
+        <v>7.48974609375</v>
       </c>
       <c r="F69" t="n">
-        <v>0.308580070734024</v>
+        <v>0.3960331082344055</v>
       </c>
       <c r="G69" t="n">
         <v>0</v>
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="K69" t="n">
-        <v>21.94586181640625</v>
+        <v>7.98309326171875</v>
       </c>
       <c r="L69" t="n">
-        <v>11.75763179012029</v>
+        <v>1.05164920658557</v>
       </c>
     </row>
     <row r="70">
@@ -2884,19 +2884,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1126.982666015625</v>
+        <v>89.04634094238281</v>
       </c>
       <c r="C70" t="n">
-        <v>482.1123046875</v>
+        <v>416.468994140625</v>
       </c>
       <c r="D70" t="n">
-        <v>25.5054931640625</v>
+        <v>25.09043121337891</v>
       </c>
       <c r="E70" t="n">
-        <v>28.5494384765625</v>
+        <v>33.9429931640625</v>
       </c>
       <c r="F70" t="n">
-        <v>0.3062759637832642</v>
+        <v>0.3932976722717285</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -2907,10 +2907,10 @@
         </is>
       </c>
       <c r="K70" t="n">
-        <v>28.5494384765625</v>
+        <v>33.9429931640625</v>
       </c>
       <c r="L70" t="n">
-        <v>15.29553900549817</v>
+        <v>4.471464964752323</v>
       </c>
     </row>
     <row r="71">
@@ -2918,19 +2918,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>681.8624267578125</v>
+        <v>443.9927368164062</v>
       </c>
       <c r="C71" t="n">
-        <v>895.3058471679688</v>
+        <v>980.0811767578125</v>
       </c>
       <c r="D71" t="n">
-        <v>20.85247802734375</v>
+        <v>48.03176879882812</v>
       </c>
       <c r="E71" t="n">
-        <v>23.2447509765625</v>
+        <v>59.19989013671875</v>
       </c>
       <c r="F71" t="n">
-        <v>0.3050170540809631</v>
+        <v>0.3931153118610382</v>
       </c>
       <c r="G71" t="n">
         <v>0</v>
@@ -2941,10 +2941,10 @@
         </is>
       </c>
       <c r="K71" t="n">
-        <v>23.2447509765625</v>
+        <v>59.19989013671875</v>
       </c>
       <c r="L71" t="n">
-        <v>12.45351972603534</v>
+        <v>7.798670947610751</v>
       </c>
     </row>
     <row r="72">
@@ -2952,19 +2952,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1417.86279296875</v>
+        <v>1212.299072265625</v>
       </c>
       <c r="C72" t="n">
-        <v>83.02105712890625</v>
+        <v>753.667724609375</v>
       </c>
       <c r="D72" t="n">
-        <v>19.8782958984375</v>
+        <v>15.5010986328125</v>
       </c>
       <c r="E72" t="n">
-        <v>17.85631561279297</v>
+        <v>12.70123291015625</v>
       </c>
       <c r="F72" t="n">
-        <v>0.3041957318782806</v>
+        <v>0.3927232623100281</v>
       </c>
       <c r="G72" t="n">
         <v>0</v>
@@ -2975,10 +2975,10 @@
         </is>
       </c>
       <c r="K72" t="n">
-        <v>19.8782958984375</v>
+        <v>15.5010986328125</v>
       </c>
       <c r="L72" t="n">
-        <v>10.64992050638728</v>
+        <v>2.042030268714684</v>
       </c>
     </row>
     <row r="73">
@@ -2986,19 +2986,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1102.531616210938</v>
+        <v>522.3702392578125</v>
       </c>
       <c r="C73" t="n">
-        <v>859.5216064453125</v>
+        <v>852.76025390625</v>
       </c>
       <c r="D73" t="n">
-        <v>17.8779296875</v>
+        <v>27.91961669921875</v>
       </c>
       <c r="E73" t="n">
-        <v>34.91278076171875</v>
+        <v>29.43487548828125</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3033076226711273</v>
+        <v>0.390520453453064</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         </is>
       </c>
       <c r="K73" t="n">
-        <v>34.91278076171875</v>
+        <v>29.43487548828125</v>
       </c>
       <c r="L73" t="n">
-        <v>18.7047391621964</v>
+        <v>3.877590106786677</v>
       </c>
     </row>
     <row r="74">
@@ -3020,19 +3020,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1504.58642578125</v>
+        <v>143.6254577636719</v>
       </c>
       <c r="C74" t="n">
-        <v>438.4246215820312</v>
+        <v>211.4559631347656</v>
       </c>
       <c r="D74" t="n">
-        <v>22.5242919921875</v>
+        <v>49.21585083007812</v>
       </c>
       <c r="E74" t="n">
-        <v>26.867431640625</v>
+        <v>38.00550842285156</v>
       </c>
       <c r="F74" t="n">
-        <v>0.2960854768753052</v>
+        <v>0.3898661434650421</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         </is>
       </c>
       <c r="K74" t="n">
-        <v>26.867431640625</v>
+        <v>49.21585083007812</v>
       </c>
       <c r="L74" t="n">
-        <v>14.39439339495605</v>
+        <v>6.483428012181585</v>
       </c>
     </row>
     <row r="75">
@@ -3054,19 +3054,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>374.8663940429688</v>
+        <v>61.83446884155273</v>
       </c>
       <c r="C75" t="n">
-        <v>806.16064453125</v>
+        <v>433.501953125</v>
       </c>
       <c r="D75" t="n">
-        <v>23.91635131835938</v>
+        <v>18.37180328369141</v>
       </c>
       <c r="E75" t="n">
-        <v>27.72125244140625</v>
+        <v>15.554443359375</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2953927516937256</v>
+        <v>0.3887486755847931</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         </is>
       </c>
       <c r="K75" t="n">
-        <v>27.72125244140625</v>
+        <v>18.37180328369141</v>
       </c>
       <c r="L75" t="n">
-        <v>14.85183319268715</v>
+        <v>2.420201257010057</v>
       </c>
     </row>
     <row r="76">
@@ -3088,19 +3088,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>780.845703125</v>
+        <v>254.9881591796875</v>
       </c>
       <c r="C76" t="n">
-        <v>500.861572265625</v>
+        <v>393.3312377929688</v>
       </c>
       <c r="D76" t="n">
-        <v>32.36614990234375</v>
+        <v>16.46589660644531</v>
       </c>
       <c r="E76" t="n">
-        <v>32.863037109375</v>
+        <v>17.78121948242188</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2935356199741364</v>
+        <v>0.3886240124702454</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
@@ -3111,10 +3111,10 @@
         </is>
       </c>
       <c r="K76" t="n">
-        <v>32.863037109375</v>
+        <v>17.78121948242188</v>
       </c>
       <c r="L76" t="n">
-        <v>17.60657626797926</v>
+        <v>2.342400965109963</v>
       </c>
     </row>
     <row r="77">
@@ -3122,19 +3122,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1048.29150390625</v>
+        <v>565.8868408203125</v>
       </c>
       <c r="C77" t="n">
-        <v>516.3729248046875</v>
+        <v>319.2711791992188</v>
       </c>
       <c r="D77" t="n">
-        <v>21.4351806640625</v>
+        <v>41.58013916015625</v>
       </c>
       <c r="E77" t="n">
-        <v>25.992431640625</v>
+        <v>33.4005126953125</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2932583093643188</v>
+        <v>0.3867840170860291</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         </is>
       </c>
       <c r="K77" t="n">
-        <v>25.992431640625</v>
+        <v>41.58013916015625</v>
       </c>
       <c r="L77" t="n">
-        <v>13.92560670968383</v>
+        <v>5.47754096362409</v>
       </c>
     </row>
     <row r="78">
@@ -3156,19 +3156,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1083.086181640625</v>
+        <v>793.8970947265625</v>
       </c>
       <c r="C78" t="n">
-        <v>862.297119140625</v>
+        <v>812.4660034179688</v>
       </c>
       <c r="D78" t="n">
-        <v>17.2530517578125</v>
+        <v>46.49737548828125</v>
       </c>
       <c r="E78" t="n">
-        <v>29.2119140625</v>
+        <v>49.0517578125</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2895137965679169</v>
+        <v>0.3867694437503815</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -3179,10 +3179,10 @@
         </is>
       </c>
       <c r="K78" t="n">
-        <v>29.2119140625</v>
+        <v>49.0517578125</v>
       </c>
       <c r="L78" t="n">
-        <v>15.65046441579007</v>
+        <v>6.461811292185368</v>
       </c>
     </row>
     <row r="79">
@@ -3190,19 +3190,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>536.9943237304688</v>
+        <v>66.62139892578125</v>
       </c>
       <c r="C79" t="n">
-        <v>191.6630859375</v>
+        <v>364.0980224609375</v>
       </c>
       <c r="D79" t="n">
-        <v>17.397705078125</v>
+        <v>26.24773788452148</v>
       </c>
       <c r="E79" t="n">
-        <v>19.22769165039062</v>
+        <v>18.0260009765625</v>
       </c>
       <c r="F79" t="n">
-        <v>0.2866134941577911</v>
+        <v>0.3744228780269623</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -3213,10 +3213,10 @@
         </is>
       </c>
       <c r="K79" t="n">
-        <v>19.22769165039062</v>
+        <v>26.24773788452148</v>
       </c>
       <c r="L79" t="n">
-        <v>10.30135523911195</v>
+        <v>3.457733965515522</v>
       </c>
     </row>
     <row r="80">
@@ -3224,19 +3224,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>295.891845703125</v>
+        <v>1247.493896484375</v>
       </c>
       <c r="C80" t="n">
-        <v>845.124755859375</v>
+        <v>152.8003997802734</v>
       </c>
       <c r="D80" t="n">
-        <v>26.32431030273438</v>
+        <v>20.0279541015625</v>
       </c>
       <c r="E80" t="n">
-        <v>42.33148193359375</v>
+        <v>19.97830200195312</v>
       </c>
       <c r="F80" t="n">
-        <v>0.2854093313217163</v>
+        <v>0.3660895526409149</v>
       </c>
       <c r="G80" t="n">
         <v>0</v>
@@ -3247,10 +3247,10 @@
         </is>
       </c>
       <c r="K80" t="n">
-        <v>42.33148193359375</v>
+        <v>20.0279541015625</v>
       </c>
       <c r="L80" t="n">
-        <v>22.67935439806887</v>
+        <v>2.638373541424181</v>
       </c>
     </row>
     <row r="81">
@@ -3258,19 +3258,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>471.1849975585938</v>
+        <v>897.1290283203125</v>
       </c>
       <c r="C81" t="n">
-        <v>590.7806396484375</v>
+        <v>847.130126953125</v>
       </c>
       <c r="D81" t="n">
-        <v>22.061279296875</v>
+        <v>11.24371337890625</v>
       </c>
       <c r="E81" t="n">
-        <v>24.53436279296875</v>
+        <v>11.38739013671875</v>
       </c>
       <c r="F81" t="n">
-        <v>0.2849022448062897</v>
+        <v>0.3601059019565582</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -3281,10 +3281,10 @@
         </is>
       </c>
       <c r="K81" t="n">
-        <v>24.53436279296875</v>
+        <v>11.38739013671875</v>
       </c>
       <c r="L81" t="n">
-        <v>13.14443726740788</v>
+        <v>1.500112726953449</v>
       </c>
     </row>
     <row r="82">
@@ -3292,19 +3292,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>295.8468627929688</v>
+        <v>563.6177978515625</v>
       </c>
       <c r="C82" t="n">
-        <v>455.6468811035156</v>
+        <v>312.6410522460938</v>
       </c>
       <c r="D82" t="n">
-        <v>21.83285522460938</v>
+        <v>30.19085693359375</v>
       </c>
       <c r="E82" t="n">
-        <v>24.706787109375</v>
+        <v>19.30657958984375</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2837194800376892</v>
+        <v>0.3573583364486694</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="K82" t="n">
-        <v>24.706787109375</v>
+        <v>30.19085693359375</v>
       </c>
       <c r="L82" t="n">
-        <v>13.2368146659775</v>
+        <v>3.977178983064585</v>
       </c>
     </row>
     <row r="83">
@@ -3326,19 +3326,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>160.8062744140625</v>
+        <v>1014.455444335938</v>
       </c>
       <c r="C83" t="n">
-        <v>535.1680908203125</v>
+        <v>513.5220336914062</v>
       </c>
       <c r="D83" t="n">
-        <v>21.33049011230469</v>
+        <v>55.07958984375</v>
       </c>
       <c r="E83" t="n">
-        <v>26.90399169921875</v>
+        <v>70.257568359375</v>
       </c>
       <c r="F83" t="n">
-        <v>0.2826723754405975</v>
+        <v>0.3545224368572235</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -3349,10 +3349,10 @@
         </is>
       </c>
       <c r="K83" t="n">
-        <v>26.90399169921875</v>
+        <v>70.257568359375</v>
       </c>
       <c r="L83" t="n">
-        <v>14.41398067344922</v>
+        <v>9.255349223599138</v>
       </c>
     </row>
     <row r="84">
@@ -3360,19 +3360,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1004.81005859375</v>
+        <v>500.4050903320312</v>
       </c>
       <c r="C84" t="n">
-        <v>496.1310119628906</v>
+        <v>317.6769409179688</v>
       </c>
       <c r="D84" t="n">
-        <v>19.50177001953125</v>
+        <v>14.00411987304688</v>
       </c>
       <c r="E84" t="n">
-        <v>22.66778564453125</v>
+        <v>11.83432006835938</v>
       </c>
       <c r="F84" t="n">
-        <v>0.2824986577033997</v>
+        <v>0.353094220161438</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -3383,10 +3383,10 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>22.66778564453125</v>
+        <v>14.00411987304688</v>
       </c>
       <c r="L84" t="n">
-        <v>12.14440696544115</v>
+        <v>1.84482644391006</v>
       </c>
     </row>
     <row r="85">
@@ -3394,19 +3394,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1084.2900390625</v>
+        <v>755.74072265625</v>
       </c>
       <c r="C85" t="n">
-        <v>1015.682739257812</v>
+        <v>954.86474609375</v>
       </c>
       <c r="D85" t="n">
-        <v>10.4659423828125</v>
+        <v>18.4290771484375</v>
       </c>
       <c r="E85" t="n">
-        <v>10.26531982421875</v>
+        <v>20.25469970703125</v>
       </c>
       <c r="F85" t="n">
-        <v>0.2796519696712494</v>
+        <v>0.3448358774185181</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -3417,10 +3417,10 @@
         </is>
       </c>
       <c r="K85" t="n">
-        <v>10.4659423828125</v>
+        <v>20.25469970703125</v>
       </c>
       <c r="L85" t="n">
-        <v>5.60719364330138</v>
+        <v>2.668243771956428</v>
       </c>
     </row>
     <row r="86">
@@ -3428,19 +3428,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>416.5993041992188</v>
+        <v>1337.307861328125</v>
       </c>
       <c r="C86" t="n">
-        <v>401.8056030273438</v>
+        <v>652.5927124023438</v>
       </c>
       <c r="D86" t="n">
-        <v>20.49102783203125</v>
+        <v>5.791748046875</v>
       </c>
       <c r="E86" t="n">
-        <v>22.8797607421875</v>
+        <v>11.2529296875</v>
       </c>
       <c r="F86" t="n">
-        <v>0.2766822874546051</v>
+        <v>0.3446014523506165</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -3451,10 +3451,10 @@
         </is>
       </c>
       <c r="K86" t="n">
-        <v>22.8797607421875</v>
+        <v>11.2529296875</v>
       </c>
       <c r="L86" t="n">
-        <v>12.25797394074461</v>
+        <v>1.482399640045631</v>
       </c>
     </row>
     <row r="87">
@@ -3462,19 +3462,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1472.289306640625</v>
+        <v>1301.1455078125</v>
       </c>
       <c r="C87" t="n">
-        <v>762.1357421875</v>
+        <v>281.5124816894531</v>
       </c>
       <c r="D87" t="n">
-        <v>21.3931884765625</v>
+        <v>16.1300048828125</v>
       </c>
       <c r="E87" t="n">
-        <v>24.260498046875</v>
+        <v>16.62591552734375</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2759946584701538</v>
+        <v>0.3409307599067688</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -3485,10 +3485,10 @@
         </is>
       </c>
       <c r="K87" t="n">
-        <v>24.260498046875</v>
+        <v>16.62591552734375</v>
       </c>
       <c r="L87" t="n">
-        <v>12.99771252851165</v>
+        <v>2.190207517295788</v>
       </c>
     </row>
     <row r="88">
@@ -3496,19 +3496,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>230.1638336181641</v>
+        <v>640.730712890625</v>
       </c>
       <c r="C88" t="n">
-        <v>501.586181640625</v>
+        <v>821.6712646484375</v>
       </c>
       <c r="D88" t="n">
-        <v>24.22378540039062</v>
+        <v>23.61297607421875</v>
       </c>
       <c r="E88" t="n">
-        <v>22.85983276367188</v>
+        <v>42.41424560546875</v>
       </c>
       <c r="F88" t="n">
-        <v>0.2747771441936493</v>
+        <v>0.3400896489620209</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="K88" t="n">
-        <v>24.22378540039062</v>
+        <v>42.41424560546875</v>
       </c>
       <c r="L88" t="n">
-        <v>12.97804350010823</v>
+        <v>5.587421601700457</v>
       </c>
     </row>
     <row r="89">
@@ -3530,19 +3530,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>894.6751708984375</v>
+        <v>648.8150634765625</v>
       </c>
       <c r="C89" t="n">
-        <v>784.3688354492188</v>
+        <v>316.2072143554688</v>
       </c>
       <c r="D89" t="n">
-        <v>24.94775390625</v>
+        <v>12.81488037109375</v>
       </c>
       <c r="E89" t="n">
-        <v>38.326904296875</v>
+        <v>14.31439208984375</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2712437510490417</v>
+        <v>0.3348504900932312</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="K89" t="n">
-        <v>38.326904296875</v>
+        <v>14.31439208984375</v>
       </c>
       <c r="L89" t="n">
-        <v>20.53387705380299</v>
+        <v>1.885700015083864</v>
       </c>
     </row>
     <row r="90">
@@ -3564,19 +3564,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1131.50830078125</v>
+        <v>1322.7548828125</v>
       </c>
       <c r="C90" t="n">
-        <v>470.8272094726562</v>
+        <v>992.0384521484375</v>
       </c>
       <c r="D90" t="n">
-        <v>27.1580810546875</v>
+        <v>16.6221923828125</v>
       </c>
       <c r="E90" t="n">
-        <v>27.41000366210938</v>
+        <v>16.81878662109375</v>
       </c>
       <c r="F90" t="n">
-        <v>0.2709906995296478</v>
+        <v>0.334700733423233</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -3587,10 +3587,10 @@
         </is>
       </c>
       <c r="K90" t="n">
-        <v>27.41000366210938</v>
+        <v>16.81878662109375</v>
       </c>
       <c r="L90" t="n">
-        <v>14.68507972578246</v>
+        <v>2.215615304235735</v>
       </c>
     </row>
     <row r="91">
@@ -3598,19 +3598,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>813.92041015625</v>
+        <v>1150.512451171875</v>
       </c>
       <c r="C91" t="n">
-        <v>404.5906372070312</v>
+        <v>27.36469650268555</v>
       </c>
       <c r="D91" t="n">
-        <v>26.31475830078125</v>
+        <v>24.8687744140625</v>
       </c>
       <c r="E91" t="n">
-        <v>29.21353149414062</v>
+        <v>25.32989501953125</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2691470086574554</v>
+        <v>0.3321133255958557</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -3621,10 +3621,10 @@
         </is>
       </c>
       <c r="K91" t="n">
-        <v>29.21353149414062</v>
+        <v>25.32989501953125</v>
       </c>
       <c r="L91" t="n">
-        <v>15.6513309648386</v>
+        <v>3.336822347788863</v>
       </c>
     </row>
     <row r="92">
@@ -3632,19 +3632,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>789.6715087890625</v>
+        <v>1439.10595703125</v>
       </c>
       <c r="C92" t="n">
-        <v>1016.536865234375</v>
+        <v>356.163818359375</v>
       </c>
       <c r="D92" t="n">
-        <v>15.5250244140625</v>
+        <v>24.2235107421875</v>
       </c>
       <c r="E92" t="n">
-        <v>13.33270263671875</v>
+        <v>18.49612426757812</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2690647542476654</v>
+        <v>0.3295451998710632</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -3655,10 +3655,10 @@
         </is>
       </c>
       <c r="K92" t="n">
-        <v>15.5250244140625</v>
+        <v>24.2235107421875</v>
       </c>
       <c r="L92" t="n">
-        <v>8.317628267244162</v>
+        <v>3.191073311757084</v>
       </c>
     </row>
     <row r="93">
@@ -3666,19 +3666,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>544.9937744140625</v>
+        <v>1325.573852539062</v>
       </c>
       <c r="C93" t="n">
-        <v>100.1523056030273</v>
+        <v>997.5345458984375</v>
       </c>
       <c r="D93" t="n">
-        <v>20.95806884765625</v>
+        <v>12.7734375</v>
       </c>
       <c r="E93" t="n">
-        <v>23.4217529296875</v>
+        <v>12.89837646484375</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2669350802898407</v>
+        <v>0.3285301923751831</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -3689,10 +3689,10 @@
         </is>
       </c>
       <c r="K93" t="n">
-        <v>23.4217529296875</v>
+        <v>12.89837646484375</v>
       </c>
       <c r="L93" t="n">
-        <v>12.54834962191211</v>
+        <v>1.699161832486782</v>
       </c>
     </row>
     <row r="94">
@@ -3700,19 +3700,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>109.1052551269531</v>
+        <v>143.3970336914062</v>
       </c>
       <c r="C94" t="n">
-        <v>74.48539733886719</v>
+        <v>488.8425903320312</v>
       </c>
       <c r="D94" t="n">
-        <v>27.09757995605469</v>
+        <v>17.155517578125</v>
       </c>
       <c r="E94" t="n">
-        <v>37.85621643066406</v>
+        <v>21.468017578125</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2660689949989319</v>
+        <v>0.3274486660957336</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         </is>
       </c>
       <c r="K94" t="n">
-        <v>37.85621643066406</v>
+        <v>21.468017578125</v>
       </c>
       <c r="L94" t="n">
-        <v>20.28170310568999</v>
+        <v>2.82807965694985</v>
       </c>
     </row>
     <row r="95">
@@ -3734,19 +3734,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>9.590490341186523</v>
+        <v>963.206298828125</v>
       </c>
       <c r="C95" t="n">
-        <v>206.3385925292969</v>
+        <v>482.9095153808594</v>
       </c>
       <c r="D95" t="n">
-        <v>19.18098068237305</v>
+        <v>14.34124755859375</v>
       </c>
       <c r="E95" t="n">
-        <v>26.2734375</v>
+        <v>15.7606201171875</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2655748426914215</v>
+        <v>0.3268706202507019</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         </is>
       </c>
       <c r="K95" t="n">
-        <v>26.2734375</v>
+        <v>15.7606201171875</v>
       </c>
       <c r="L95" t="n">
-        <v>14.07615734437923</v>
+        <v>2.076218214938943</v>
       </c>
     </row>
     <row r="96">
@@ -3768,19 +3768,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>11.0136890411377</v>
+        <v>306.5884399414062</v>
       </c>
       <c r="C96" t="n">
-        <v>941.217041015625</v>
+        <v>738.0770263671875</v>
       </c>
       <c r="D96" t="n">
-        <v>13.42279434204102</v>
+        <v>12.18551635742188</v>
       </c>
       <c r="E96" t="n">
-        <v>16.33154296875</v>
+        <v>11.09600830078125</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2608724534511566</v>
+        <v>0.3250283300876617</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="K96" t="n">
-        <v>16.33154296875</v>
+        <v>12.18551635742188</v>
       </c>
       <c r="L96" t="n">
-        <v>8.749725592801299</v>
+        <v>1.605253526295291</v>
       </c>
     </row>
     <row r="97">
@@ -3802,19 +3802,19 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1095.22216796875</v>
+        <v>516.8076171875</v>
       </c>
       <c r="C97" t="n">
-        <v>12.94569683074951</v>
+        <v>338.1765747070312</v>
       </c>
       <c r="D97" t="n">
-        <v>11.6839599609375</v>
+        <v>12.61679077148438</v>
       </c>
       <c r="E97" t="n">
-        <v>11.73393440246582</v>
+        <v>13.39495849609375</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2596831917762756</v>
+        <v>0.3246013522148132</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>11.73393440246582</v>
+        <v>13.39495849609375</v>
       </c>
       <c r="L97" t="n">
-        <v>6.286528244266989</v>
+        <v>1.764578843418241</v>
       </c>
     </row>
     <row r="98">
@@ -3836,19 +3836,19 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>422.904541015625</v>
+        <v>1455.77783203125</v>
       </c>
       <c r="C98" t="n">
-        <v>254.5978546142578</v>
+        <v>167.4571838378906</v>
       </c>
       <c r="D98" t="n">
-        <v>24.0018310546875</v>
+        <v>15.7784423828125</v>
       </c>
       <c r="E98" t="n">
-        <v>24.19686889648438</v>
+        <v>18.34536743164062</v>
       </c>
       <c r="F98" t="n">
-        <v>0.2587488889694214</v>
+        <v>0.3226431906223297</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -3859,10 +3859,10 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>24.19686889648438</v>
+        <v>18.34536743164062</v>
       </c>
       <c r="L98" t="n">
-        <v>12.96362281594215</v>
+        <v>2.416718741909308</v>
       </c>
     </row>
     <row r="99">
@@ -3870,19 +3870,19 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>735.9241943359375</v>
+        <v>355.246337890625</v>
       </c>
       <c r="C99" t="n">
-        <v>883.1441650390625</v>
+        <v>779.5118408203125</v>
       </c>
       <c r="D99" t="n">
-        <v>20.4083251953125</v>
+        <v>24.05844116210938</v>
       </c>
       <c r="E99" t="n">
-        <v>40.56683349609375</v>
+        <v>25.3974609375</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2540911734104156</v>
+        <v>0.322480708360672</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -3893,10 +3893,10 @@
         </is>
       </c>
       <c r="K99" t="n">
-        <v>40.56683349609375</v>
+        <v>25.3974609375</v>
       </c>
       <c r="L99" t="n">
-        <v>21.73393303614153</v>
+        <v>3.34572311365675</v>
       </c>
     </row>
     <row r="100">
@@ -3904,19 +3904,19 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>634.3446655273438</v>
+        <v>653.0499267578125</v>
       </c>
       <c r="C100" t="n">
-        <v>504.811767578125</v>
+        <v>962.3192138671875</v>
       </c>
       <c r="D100" t="n">
-        <v>19.6676025390625</v>
+        <v>60.57305908203125</v>
       </c>
       <c r="E100" t="n">
-        <v>23.87069702148438</v>
+        <v>75.06475830078125</v>
       </c>
       <c r="F100" t="n">
-        <v>0.253774493932724</v>
+        <v>0.3223914504051208</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -3927,10 +3927,10 @@
         </is>
       </c>
       <c r="K100" t="n">
-        <v>23.87069702148438</v>
+        <v>75.06475830078125</v>
       </c>
       <c r="L100" t="n">
-        <v>12.78887420781612</v>
+        <v>9.888622232199513</v>
       </c>
     </row>
     <row r="101">
@@ -3938,19 +3938,19 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>544.999755859375</v>
+        <v>1251.980224609375</v>
       </c>
       <c r="C101" t="n">
-        <v>1013.212829589844</v>
+        <v>766.1205444335938</v>
       </c>
       <c r="D101" t="n">
-        <v>16.215576171875</v>
+        <v>31.5831298828125</v>
       </c>
       <c r="E101" t="n">
-        <v>16.510986328125</v>
+        <v>21.7293701171875</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2536302506923676</v>
+        <v>0.3174619376659393</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         </is>
       </c>
       <c r="K101" t="n">
-        <v>16.510986328125</v>
+        <v>31.5831298828125</v>
       </c>
       <c r="L101" t="n">
-        <v>8.845863487241891</v>
+        <v>4.160589434927602</v>
       </c>
     </row>
     <row r="102">
@@ -3972,19 +3972,19 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>243.7278900146484</v>
+        <v>533.5760498046875</v>
       </c>
       <c r="C102" t="n">
-        <v>839.9171142578125</v>
+        <v>694.5028076171875</v>
       </c>
       <c r="D102" t="n">
-        <v>22.75888061523438</v>
+        <v>17.636474609375</v>
       </c>
       <c r="E102" t="n">
-        <v>22.831787109375</v>
+        <v>16.7650146484375</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2523798048496246</v>
+        <v>0.3172721564769745</v>
       </c>
       <c r="G102" t="n">
         <v>0</v>
@@ -3995,10 +3995,10 @@
         </is>
       </c>
       <c r="K102" t="n">
-        <v>22.831787109375</v>
+        <v>17.636474609375</v>
       </c>
       <c r="L102" t="n">
-        <v>12.2322717689656</v>
+        <v>2.323333064246645</v>
       </c>
     </row>
     <row r="103">
@@ -4006,19 +4006,19 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>542.313232421875</v>
+        <v>522.5866088867188</v>
       </c>
       <c r="C103" t="n">
-        <v>77.58255767822266</v>
+        <v>725.11328125</v>
       </c>
       <c r="D103" t="n">
-        <v>21.71722412109375</v>
+        <v>16.2342529296875</v>
       </c>
       <c r="E103" t="n">
-        <v>40.08701705932617</v>
+        <v>13.3974609375</v>
       </c>
       <c r="F103" t="n">
-        <v>0.2521788477897644</v>
+        <v>0.3099477589130402</v>
       </c>
       <c r="G103" t="n">
         <v>0</v>
@@ -4029,10 +4029,10 @@
         </is>
       </c>
       <c r="K103" t="n">
-        <v>40.08701705932617</v>
+        <v>16.2342529296875</v>
       </c>
       <c r="L103" t="n">
-        <v>21.4768683996485</v>
+        <v>2.138612020842104</v>
       </c>
     </row>
     <row r="104">
@@ -4040,19 +4040,19 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>102.9838409423828</v>
+        <v>854.68603515625</v>
       </c>
       <c r="C104" t="n">
-        <v>1014.054077148438</v>
+        <v>915.1693115234375</v>
       </c>
       <c r="D104" t="n">
-        <v>15.73903656005859</v>
+        <v>9.5975341796875</v>
       </c>
       <c r="E104" t="n">
-        <v>13.5513916015625</v>
+        <v>13.94488525390625</v>
       </c>
       <c r="F104" t="n">
-        <v>0.2520645260810852</v>
+        <v>0.3065550029277802</v>
       </c>
       <c r="G104" t="n">
         <v>0</v>
@@ -4063,10 +4063,10 @@
         </is>
       </c>
       <c r="K104" t="n">
-        <v>15.73903656005859</v>
+        <v>13.94488525390625</v>
       </c>
       <c r="L104" t="n">
-        <v>8.432286603849308</v>
+        <v>1.837023197952711</v>
       </c>
     </row>
     <row r="105">
@@ -4074,19 +4074,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>242.7340393066406</v>
+        <v>1361.6484375</v>
       </c>
       <c r="C105" t="n">
-        <v>1016.929931640625</v>
+        <v>932.22509765625</v>
       </c>
       <c r="D105" t="n">
-        <v>16.39691162109375</v>
+        <v>13.4451904296875</v>
       </c>
       <c r="E105" t="n">
-        <v>15.00390625</v>
+        <v>12.89910888671875</v>
       </c>
       <c r="F105" t="n">
-        <v>0.2519231736660004</v>
+        <v>0.3048801124095917</v>
       </c>
       <c r="G105" t="n">
         <v>0</v>
@@ -4097,10 +4097,10 @@
         </is>
       </c>
       <c r="K105" t="n">
-        <v>16.39691162109375</v>
+        <v>13.4451904296875</v>
       </c>
       <c r="L105" t="n">
-        <v>8.784747254347515</v>
+        <v>1.771196124637095</v>
       </c>
     </row>
     <row r="106">
@@ -4108,19 +4108,19 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>188.8580322265625</v>
+        <v>895.516845703125</v>
       </c>
       <c r="C106" t="n">
-        <v>948.1995239257812</v>
+        <v>534.1865844726562</v>
       </c>
       <c r="D106" t="n">
-        <v>21.45018005371094</v>
+        <v>9.28948974609375</v>
       </c>
       <c r="E106" t="n">
-        <v>27.71484375</v>
+        <v>9.273681640625</v>
       </c>
       <c r="F106" t="n">
-        <v>0.2512882947921753</v>
+        <v>0.304699718952179</v>
       </c>
       <c r="G106" t="n">
         <v>0</v>
@@ -4131,10 +4131,10 @@
         </is>
       </c>
       <c r="K106" t="n">
-        <v>27.71484375</v>
+        <v>9.28948974609375</v>
       </c>
       <c r="L106" t="n">
-        <v>14.84839969645713</v>
+        <v>1.223746760909187</v>
       </c>
     </row>
     <row r="107">
@@ -4142,19 +4142,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>507.7654724121094</v>
+        <v>168.0704040527344</v>
       </c>
       <c r="C107" t="n">
-        <v>192.4928588867188</v>
+        <v>453.1009521484375</v>
       </c>
       <c r="D107" t="n">
-        <v>22.31878662109375</v>
+        <v>16.52487182617188</v>
       </c>
       <c r="E107" t="n">
-        <v>21.84852600097656</v>
+        <v>18.83255004882812</v>
       </c>
       <c r="F107" t="n">
-        <v>0.2503969371318817</v>
+        <v>0.3046779930591583</v>
       </c>
       <c r="G107" t="n">
         <v>0</v>
@@ -4165,10 +4165,826 @@
         </is>
       </c>
       <c r="K107" t="n">
-        <v>22.31878662109375</v>
+        <v>18.83255004882812</v>
       </c>
       <c r="L107" t="n">
-        <v>11.95742857074343</v>
+        <v>2.48089752524939</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>876.32421875</v>
+      </c>
+      <c r="C108" t="n">
+        <v>44.46534729003906</v>
+      </c>
+      <c r="D108" t="n">
+        <v>19.31512451171875</v>
+      </c>
+      <c r="E108" t="n">
+        <v>28.97776031494141</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.3008438646793365</v>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>28.97776031494141</v>
+      </c>
+      <c r="L108" t="n">
+        <v>3.817372244662194</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>449.0590209960938</v>
+      </c>
+      <c r="C109" t="n">
+        <v>96.98765563964844</v>
+      </c>
+      <c r="D109" t="n">
+        <v>47.2100830078125</v>
+      </c>
+      <c r="E109" t="n">
+        <v>51.91544342041016</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.2997764945030212</v>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>51.91544342041016</v>
+      </c>
+      <c r="L109" t="n">
+        <v>6.839057630006662</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>473.9219970703125</v>
+      </c>
+      <c r="C110" t="n">
+        <v>855.550048828125</v>
+      </c>
+      <c r="D110" t="n">
+        <v>13.24166870117188</v>
+      </c>
+      <c r="E110" t="n">
+        <v>19.32379150390625</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.2972450256347656</v>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>19.32379150390625</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2.545610997776658</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>480.9408569335938</v>
+      </c>
+      <c r="C111" t="n">
+        <v>32.99882507324219</v>
+      </c>
+      <c r="D111" t="n">
+        <v>20.27139282226562</v>
+      </c>
+      <c r="E111" t="n">
+        <v>16.30292510986328</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.2970388531684875</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>20.27139282226562</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2.670442831996958</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>681.1734619140625</v>
+      </c>
+      <c r="C112" t="n">
+        <v>869.7399291992188</v>
+      </c>
+      <c r="D112" t="n">
+        <v>59.14849853515625</v>
+      </c>
+      <c r="E112" t="n">
+        <v>52.9407958984375</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.2968911826610565</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>59.14849853515625</v>
+      </c>
+      <c r="L112" t="n">
+        <v>7.791900898052702</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>381.63623046875</v>
+      </c>
+      <c r="C113" t="n">
+        <v>972.5076904296875</v>
+      </c>
+      <c r="D113" t="n">
+        <v>62.23358154296875</v>
+      </c>
+      <c r="E113" t="n">
+        <v>42.052734375</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.2949160933494568</v>
+      </c>
+      <c r="G113" t="n">
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>62.23358154296875</v>
+      </c>
+      <c r="L113" t="n">
+        <v>8.198312922947187</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>235.4241027832031</v>
+      </c>
+      <c r="C114" t="n">
+        <v>15.65433502197266</v>
+      </c>
+      <c r="D114" t="n">
+        <v>45.72627258300781</v>
+      </c>
+      <c r="E114" t="n">
+        <v>21.99590682983398</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.2945567667484283</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>45.72627258300781</v>
+      </c>
+      <c r="L114" t="n">
+        <v>6.023729988553631</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>958.8848876953125</v>
+      </c>
+      <c r="C115" t="n">
+        <v>507.2218933105469</v>
+      </c>
+      <c r="D115" t="n">
+        <v>19.566650390625</v>
+      </c>
+      <c r="E115" t="n">
+        <v>17.23748779296875</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.2933607399463654</v>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>19.566650390625</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2.577603904179838</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1472.51416015625</v>
+      </c>
+      <c r="C116" t="n">
+        <v>272.715576171875</v>
+      </c>
+      <c r="D116" t="n">
+        <v>14.327392578125</v>
+      </c>
+      <c r="E116" t="n">
+        <v>26.759033203125</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.2925946712493896</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>26.759033203125</v>
+      </c>
+      <c r="L116" t="n">
+        <v>3.525089224750529</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>125.1107330322266</v>
+      </c>
+      <c r="C117" t="n">
+        <v>280.2341918945312</v>
+      </c>
+      <c r="D117" t="n">
+        <v>17.83367156982422</v>
+      </c>
+      <c r="E117" t="n">
+        <v>23.8004150390625</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.2912270724773407</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>23.8004150390625</v>
+      </c>
+      <c r="L117" t="n">
+        <v>3.1353369892673</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>448.3935546875</v>
+      </c>
+      <c r="C118" t="n">
+        <v>85.47188568115234</v>
+      </c>
+      <c r="D118" t="n">
+        <v>26.52166748046875</v>
+      </c>
+      <c r="E118" t="n">
+        <v>36.44123840332031</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.2911942303180695</v>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>36.44123840332031</v>
+      </c>
+      <c r="L118" t="n">
+        <v>4.800570179684512</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>489.5003051757812</v>
+      </c>
+      <c r="C119" t="n">
+        <v>916.2191162109375</v>
+      </c>
+      <c r="D119" t="n">
+        <v>11.27908325195312</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12.93426513671875</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.2835978269577026</v>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>12.93426513671875</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1.70388961056295</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>82.69993591308594</v>
+      </c>
+      <c r="C120" t="n">
+        <v>798.6428833007812</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9.481552124023438</v>
+      </c>
+      <c r="E120" t="n">
+        <v>13.2728271484375</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.2828659415245056</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>13.2728271484375</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1.748489925169243</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>554.9659423828125</v>
+      </c>
+      <c r="C121" t="n">
+        <v>738.9981689453125</v>
+      </c>
+      <c r="D121" t="n">
+        <v>17.5693359375</v>
+      </c>
+      <c r="E121" t="n">
+        <v>18.2542724609375</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.2802775502204895</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>18.2542724609375</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2.404718386843526</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>18.73771286010742</v>
+      </c>
+      <c r="C122" t="n">
+        <v>955.8890380859375</v>
+      </c>
+      <c r="D122" t="n">
+        <v>16.5810546875</v>
+      </c>
+      <c r="E122" t="n">
+        <v>14.06524658203125</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.2766700387001038</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>16.5810546875</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2.184297794700579</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>174.0958862304688</v>
+      </c>
+      <c r="C123" t="n">
+        <v>797.783935546875</v>
+      </c>
+      <c r="D123" t="n">
+        <v>23.20045471191406</v>
+      </c>
+      <c r="E123" t="n">
+        <v>19.59503173828125</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.2676239609718323</v>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>23.20045471191406</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3.056301484940418</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>994.71435546875</v>
+      </c>
+      <c r="C124" t="n">
+        <v>624.2138671875</v>
+      </c>
+      <c r="D124" t="n">
+        <v>17.03759765625</v>
+      </c>
+      <c r="E124" t="n">
+        <v>15.66619873046875</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.267205685377121</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>17.03759765625</v>
+      </c>
+      <c r="L124" t="n">
+        <v>2.244440277710327</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>460.6183471679688</v>
+      </c>
+      <c r="C125" t="n">
+        <v>117.9703140258789</v>
+      </c>
+      <c r="D125" t="n">
+        <v>10.5135498046875</v>
+      </c>
+      <c r="E125" t="n">
+        <v>14.36004638671875</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.2664615511894226</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>14.36004638671875</v>
+      </c>
+      <c r="L125" t="n">
+        <v>1.891714263384838</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1328.330200195312</v>
+      </c>
+      <c r="C126" t="n">
+        <v>938.4625854492188</v>
+      </c>
+      <c r="D126" t="n">
+        <v>18.10546875</v>
+      </c>
+      <c r="E126" t="n">
+        <v>24.5296630859375</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.2576358616352081</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>24.5296630859375</v>
+      </c>
+      <c r="L126" t="n">
+        <v>3.231404153304798</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>530.496337890625</v>
+      </c>
+      <c r="C127" t="n">
+        <v>420.1712036132812</v>
+      </c>
+      <c r="D127" t="n">
+        <v>57.5330810546875</v>
+      </c>
+      <c r="E127" t="n">
+        <v>50.11962890625</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.2576292455196381</v>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>57.5330810546875</v>
+      </c>
+      <c r="L127" t="n">
+        <v>7.579094601552834</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>54.35037231445312</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1008.035034179688</v>
+      </c>
+      <c r="D128" t="n">
+        <v>21.63319778442383</v>
+      </c>
+      <c r="E128" t="n">
+        <v>19.496826171875</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.2543624639511108</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>21.63319778442383</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2.849839597264064</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1105.568603515625</v>
+      </c>
+      <c r="C129" t="n">
+        <v>113.7936782836914</v>
+      </c>
+      <c r="D129" t="n">
+        <v>17.080810546875</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30.89454650878906</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.2506276667118073</v>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>30.89454650878906</v>
+      </c>
+      <c r="L129" t="n">
+        <v>4.069879213310593</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>18.41168212890625</v>
+      </c>
+      <c r="C130" t="n">
+        <v>433.2615966796875</v>
+      </c>
+      <c r="D130" t="n">
+        <v>25.77521705627441</v>
+      </c>
+      <c r="E130" t="n">
+        <v>61.31411743164062</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.2503852248191833</v>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>61.31411743164062</v>
+      </c>
+      <c r="L130" t="n">
+        <v>8.077187731062113</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1125.086181640625</v>
+      </c>
+      <c r="C131" t="n">
+        <v>226.81396484375</v>
+      </c>
+      <c r="D131" t="n">
+        <v>88.0218505859375</v>
+      </c>
+      <c r="E131" t="n">
+        <v>101.2550811767578</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.2502934336662292</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>windows</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>101.2550811767578</v>
+      </c>
+      <c r="L131" t="n">
+        <v>13.33879265734254</v>
       </c>
     </row>
   </sheetData>

--- a/output_window.xlsx
+++ b/output_window.xlsx
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,6 +462,7 @@
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="11" customWidth="1" min="17" max="17"/>
     <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="32" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -540,6 +541,11 @@
           <t>Scale Bar Unit</t>
         </is>
       </c>
+      <c r="S1" s="2" t="inlineStr">
+        <is>
+          <t>Degree of Interconnectivity (DI)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -599,6 +605,9 @@
           <t xml:space="preserve"> um
 </t>
         </is>
+      </c>
+      <c r="S2" t="n">
+        <v>0.216880215283855</v>
       </c>
     </row>
     <row r="3">
